--- a/Data_Learning_Prediction/FeatureSelection_CHN_GBR_841840_log.xlsx
+++ b/Data_Learning_Prediction/FeatureSelection_CHN_GBR_841840_log.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11784" windowHeight="4632" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15192" windowHeight="10668" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -101,398 +101,400 @@
     <t>_1236_12</t>
   </si>
   <si>
-    <t>[ 2  0  9  3 13  1 20  7 26 24 15  6 18 19 27 16 17 11 23 12  8 14  5 10
-  4 22 25 21]</t>
-  </si>
-  <si>
-    <t>[ 2  0  9  3  1 40 13 28  7 20 26 30  6 45 15 27 41 24 11 19 43 35 55 48
-  8 33 18 44 12 36 29 46  5 16 31 23 34 39 47 37  4 42 52 50 17 10 51 14
- 38 32 54 22 25 21 49 53]</t>
-  </si>
-  <si>
-    <t>[ 2  0  9  3  1 20 40 13 28  7 26 30 15 79 19 73  6 83 41 63 77 76 18 17
- 43 45 55 29 36 35 69 48 11  8 33 59 66  5 56 12 31 64 80 61 72 27 34 14
- 60  4 50 62 23 58 78 16 10 71 47 57 39 37 46 65 32 44 70 82 22 51 68 24
- 38 74 52 54 42 67 21 75 49 25 53 81]</t>
-  </si>
-  <si>
-    <t>[ 2 24 27  0 23 12 13 15 20  1 17 16  8 19  7  9 18  5  6 14  3  4 11 26
+    <t>[ 2  0  9  3  1 13 20  7 26 24 15  6 19 18 11 27 16 17 12  8 14 23  5  4
  10 22 21 25]</t>
   </si>
   <si>
-    <t>[51  2  0 27 13 12 55 52 24 35 29  1 15 49 30 45  9  8 32 43 23 48 20  7
- 16 33 38  6 41 17 18 50 44 54 19 36  3 11  4 28 31  5 14 37 40 34 22 46
- 10 42 21 47 39 25 26 53]</t>
-  </si>
-  <si>
-    <t>[51  2 27  0 12 62 79 83 13 77 55 30 35 64 15 29 60 20 69 52  1 80 67  9
-  6 58 38 17 45  8 78 33 57 24 61 59  7 73 23 11 43 49 18 32 28 72  3 41
- 31 71 63 48 76 56 36 44 22  4 16 34  5 40 70 66 19 65 54 68 14 10 21 37
- 74 82 26 75 50 46 25 39 42 47 81 53]</t>
-  </si>
-  <si>
-    <t>[23 24 27 13  7 15  2 20  1 21 17 10 16  4  5 18  8 22 12  0 26  3 19  6
-  9 14 11 25]</t>
-  </si>
-  <si>
-    <t>[23 51 49 55 27 34  2 24  7  1 39 15 41 13 17 36 29 52 50 32 20 30 10 31
- 33 48 45 43 21  0  5 44 28 16  8  4 37 35 22  3 40 26 12  6  9 54 42 38
- 19 47 46 14 18 11 53 25]</t>
-  </si>
-  <si>
-    <t>[23 83 51 55 67 78 27 59  7 64  2 79 57 34 77  1 30 17 36 63 24 20 13 49
- 41 15 62 52 32 80  4 29 58 39  5 10 33 45 60 21 16 43 35  0 48 70 61 65
- 31 56 50 76  3  8 37 28  9 44 82 73 26 54 69 18 22  6 66 12 40 38 71 68
- 74 72 11 47 19 42 75 46 14 81 53 25]</t>
-  </si>
-  <si>
-    <t>[23 27 24 21  6 13 22  4  2 15  8 16 11 17  1  3  5  0 20  7 10 12 26  9
- 14 18 19 25]</t>
-  </si>
-  <si>
-    <t>[55 27 23 51 39 50 36 31 24  6 49 35 29 52 17  8  2 21  4  1 30 13 34 22
-  5 11 15 32 20 16 37 40  3  7 48 33 26 12  9 28  0 43 38 18 45 10 46 42
- 54 41 44 47 19 14 53 25]</t>
-  </si>
-  <si>
-    <t>[55 58 23 27 51 36 39 31 50  6 77 17 35 78 29 57 80  2  8 49 13 21 59  1
- 34  4  5 52 24 30 79 63 15 64 68 32 67 83 22 11 20 61 56 16 40 66  3 37
- 62  7 76 65  0  9 71 60 28 73 70 18 33 74 45 43 38 26 10 72 69 12 54 41
- 48 47 75 46 42 44 14 82 81 19 25 53]</t>
-  </si>
-  <si>
-    <t>[23 27 24 22 11  1  3  8  7 21  6  2  4 20 15  9 17 16  5 12 18 14  0 13
- 10 26 19 25]</t>
-  </si>
-  <si>
-    <t>[27 30 23 52 11  8 51 22  7  3 24 49 31 50  1 29 21  6 55 35 36  4 39 40
- 33 28 38  2 48 20 34 17 45 15 43 12  9 32 37  5 46 16 42  0 13 18 26 41
- 10 14 44 19 54 47 53 25]</t>
-  </si>
-  <si>
-    <t>[30 27 23 83 11 79 22  8  7 52  3 58 60  1 80 51 78 24 21 56 77 57 49 29
- 31 70  6 55 35 17 50 69 34  4 71 36 20 38 63 39  2 64 12 33 74 67 73 40
- 59 65  9 68 48 32 62 76 66 28  0 15 45 43 14 37 82  5 13 18 16 61 42 46
- 10 26 19 41 72 44 81 75 54 47 53 25]</t>
-  </si>
-  <si>
-    <t>[24  2 23  7 22 21  3 11 12 27  1  8 20  5 15 17 10  0  6 14  9  4 18 16
- 13 19 25 26]</t>
-  </si>
-  <si>
-    <t>[55  2 51 52 24  7 23 22 30 49 21 32 27 29 42 12  1 28 50  3 11 39 40 34
- 41  8  5 43 46 20  6 35 31 10 17 45 48 37 38  4 36  9 54 15  0 33 14 16
- 18 13 19 44 47 25 26 53]</t>
-  </si>
-  <si>
-    <t>[79  2 80 69 55 51 24 59 32 63 52 30 21  1 23  7 27 49 70  3 64 66 28 29
- 22 65 11 50 77 39 12 68 43 78  8 10  5 41 83 42 20  4 57 34 40 31 62 35
- 36 17  6 56 45 60 15 38 76 48 74 46  9 37 16 54 14 18  0 71 82 67 73 58
- 33 72 13 44 75 61 25 26 81 19 47 53]</t>
-  </si>
-  <si>
-    <t>[24 23 13 20 16  0  2  9 27  1 12 26  7  3 11 17  8 22 14  6 10  4 18  5
- 21 15 25 19]</t>
-  </si>
-  <si>
-    <t>[  2   0   9   1   3  40  28  30  20  26  13  91  79 106  86 105  87   7
-  15  63  55  77   8  95   6  48  96  45  19  66  76  41  43  73  89  83
-  36  35  29  39  90  16 104  61  88  11  72  27  18  85  56   5  78  58
-  17  64  84  92  71  59  12  24  69  34  94  31  50 102  98  47  93  60
-   4  32  37  33  57  99 101  62  97  14  42  10  44  82 109  38  46  80
- 108  68  23 100 111  65  70 110  74  75  22  49  21 103  67  54 107  51
-  53  25  81  52]</t>
-  </si>
-  <si>
-    <t>[  2   0   1   9   3  40 115  28 123  20  30 134 142 139 120  92  26  63
-   7  90 105 119 161  13 143   6 133  73 147  83  15  79  19 141  97  61
-  55 152   8  29  88  12 162  18  27  35  87 113  45  36 106 116 144 151
- 146  48  58  43  72  33 140  59 111 150  57  56   5 155  69  11  41  95
-  66 145  17  60 157 160 117  89 148 118  23  47   4  76 104  91 107 100
- 124 149  77  85 158 132  34  37  50  31  64  44 125  84 163  93  71  65
-  14 112 126  39 121 138 122  94  38 153 101  32 154  86 114  46  10  96
- 130  16  78  70 129  51  82  62  68  24  75 164 156 167 135  22 102 166
-  99 110 165  49  42  52 136  54  80  98 127 109  25 159  67 103 128 131
-  21  81 108 137  74  53]</t>
-  </si>
-  <si>
-    <t>[  2 114   0 112   9 121   3 113  86 140 115 105 152 106  28  40  20  91
-   1  30  87  63 132 125 119  13  96 142   7  77  66  95 167 138 104  26
-  73  79  88  58 131   6  15  83 118  61  89  56  55 153  92  90  78  59
-  18  72  94  85  60  69 130  45 145  33  76  64 141  84  24  99 102   5
- 160 157 139  36 148 101 147  62  27 129  11  93 136   8  43 155  19 110
-  82 127 117  34 111  48 143 120  35  98  41 107 123  57  14 109  46 146
-  71  39 151  65  68  52   4 103 124  29  80  74  31  12 156 128  10 100
-  32 149  37 116  16 126  23  47 135 158  50  17 122 134 164  97  38 162
-  44  70 150  51 163  67  75 144 159  42  22 161 137 133 154 108  54 166
-  25  53  81 165  49  21]</t>
-  </si>
-  <si>
-    <t>[1.9054304 0.6939574 4.8017202 0.9363739 0.1732732 0.2194956 0.3927515
- 0.6393283 0.2377154 1.0484953 0.1955305 0.2742587 0.2605304 0.83812
- 0.2373564 0.3992035 0.2899182 0.2898036 0.3485904 0.338683  0.656094
- 0.099158  0.1160025 0.2740425 0.4208284 0.1136339 0.5441459 0.3165798]</t>
-  </si>
-  <si>
-    <t>[2.6356109 1.140328  7.9798199 1.3208064 0.1966891 0.2289615 0.4481098
- 0.7201959 0.2997523 1.550144  0.1716821 0.3361879 0.2669688 0.9408095
- 0.1631678 0.4125721 0.2180601 0.1901665 0.2832863 0.3217541 0.6241358
- 0.0891583 0.1133291 0.2121202 0.3523593 0.098037  0.5688558 0.4090467
- 0.8284797 0.261539  0.5266655 0.212895  0.1562899 0.28762   0.2103625
- 0.3197154 0.2660587 0.1979026 0.1567177 0.2055091 1.0201797 0.3849654
- 0.1946754 0.3198159 0.2696824 0.4373928 0.2549339 0.1991619 0.3029109
- 0.0850209 0.1931024 0.1697145 0.1937794 0.0722773 0.1169868 0.3100769]</t>
-  </si>
-  <si>
-    <t>[3.1092113 1.4665116 8.7980451 1.5285779 0.199113  0.2483721 0.4217546
- 0.6930243 0.2845047 2.5330484 0.1834659 0.2867421 0.2387236 0.9299548
- 0.2059391 0.5719896 0.1875881 0.3159981 0.3413364 0.4739437 0.9791858
- 0.0792973 0.1387395 0.192733  0.1195216 0.05931   0.6909103 0.2108972
- 0.8800818 0.3131353 0.5825212 0.2243383 0.1462991 0.2801429 0.2103445
- 0.3070682 0.3130142 0.1688289 0.1177996 0.1696159 0.96268   0.4012048
- 0.0976763 0.3159891 0.1439724 0.3141109 0.153552  0.1769543 0.2990767
- 0.0726848 0.1971798 0.137887  0.1075446 0.0532189 0.1045247 0.3139853
- 0.2421211 0.1698011 0.1924482 0.2533138 0.2008925 0.2173639 0.1956572
- 0.3644378 0.2243191 0.1473246 0.2513375 0.0833298 0.1249337 0.3016628
- 0.1439246 0.1806784 0.2157864 0.4507172 0.1165956 0.0728023 0.3442798
- 0.3512493 0.1916191 0.5377207 0.217643  0.0516967 0.140869  0.4092194]</t>
-  </si>
-  <si>
-    <t>[1.1059867 0.6650398 1.6715032 0.2837673 0.2637804 0.3222967 0.3159221
- 0.4093988 0.4566576 0.4091096 0.224665  0.2576816 0.9482341 0.8972007
- 0.291799  0.7401365 0.478102  0.5913161 0.3494744 0.4459749 0.6875791
- 0.1631283 0.2150294 1.0533741 1.5613299 0.1416884 0.2289489 1.3458118]</t>
-  </si>
-  <si>
-    <t>[1.4251768 0.6651265 1.8862928 0.2774868 0.2696445 0.2417981 0.3513317
- 0.3833555 0.4183695 0.4440446 0.1488611 0.2710018 1.165852  1.2768212
- 0.2162438 0.6402149 0.3806463 0.3446698 0.3248604 0.2874524 0.3925369
- 0.1368726 0.1776837 0.406882  0.7894908 0.1086611 0.107333  1.3508346
- 0.2634301 0.6718893 0.5876626 0.2537909 0.4119728 0.3776244 0.2010058
- 0.7722474 0.2854576 0.214215  0.3732385 0.1185115 0.2044525 0.345794
- 0.1461575 0.4076397 0.3019275 0.5101003 0.1704815 0.1356376 0.4018834
- 0.6253213 0.3154092 2.735554  0.8178698 0.0723192 0.2992027 0.9111012]</t>
-  </si>
-  <si>
-    <t>[1.6442827 0.4317818 2.4152183 0.2588998 0.1873021 0.1728029 0.3749041
- 0.3227195 0.3501317 0.4096265 0.1422747 0.2975323 1.3790988 1.0170294
- 0.1467911 0.6401921 0.1837007 0.3617239 0.2860235 0.1638798 0.506299
- 0.1253621 0.2167723 0.3043892 0.3342682 0.0906932 0.1091232 1.930095
- 0.2673159 0.5916005 0.8459425 0.2552816 0.2796471 0.346734  0.1822687
- 0.7290764 0.2349779 0.1214323 0.3742535 0.0793092 0.1645737 0.25628
- 0.0689228 0.2937865 0.2194719 0.3575886 0.1012038 0.0666042 0.248622
- 0.2888123 0.1059156 3.2564861 0.4640731 0.0591014 0.1549983 0.9397433
- 0.2414734 0.3457962 0.3745839 0.3301279 0.5826075 0.3308328 1.16924
- 0.2489033 0.6478028 0.1624323 0.1641273 0.4237297 0.1499607 0.5028364
- 0.1644281 0.2493497 0.2610689 0.3135319 0.1159138 0.1087087 0.2442005
- 0.9713152 0.3499064 1.0695426 0.4239498 0.0641393 0.1098941 1.0262627]</t>
-  </si>
-  <si>
-    <t>[0.2872302 0.6085719 0.6964601 0.2682124 0.4136085 0.3415068 0.2313154
- 0.7816061 0.3064563 0.2191516 0.5455065 0.1937793 0.2909606 0.91412
- 0.2158876 0.7439462 0.4487583 0.5559111 0.3269207 0.236284  0.6218379
- 0.5997442 0.293172  2.5640244 1.5387204 0.1248488 0.2806544 1.0822156]</t>
-  </si>
-  <si>
-    <t>[0.3632743 0.8144476 1.0828838 0.2278929 0.3056308 0.3554754 0.2013175
- 0.9189004 0.3086667 0.1937987 0.4769742 0.1267152 0.2140285 0.7196838
- 0.1337115 0.7351839 0.3160115 0.6724857 0.1328205 0.1669138 0.5249716
- 0.3635752 0.2627082 3.2024512 1.043759  0.0872896 0.2225912 1.3149858
- 0.3304823 0.6154764 0.4976912 0.4717033 0.5568958 0.4548432 1.2303178
- 0.2649679 0.6396604 0.2664206 0.1874409 0.7378664 0.2252714 0.7293746
- 0.1917244 0.4123849 0.3311857 0.4434942 0.1403258 0.149002  0.4542661
- 1.5099841 0.5728551 2.0208826 0.5751178 0.0998338 0.1924716 1.429505 ]</t>
-  </si>
-  <si>
-    <t>[0.2532363 0.8006798 0.8779764 0.202179  0.3797375 0.3509524 0.1399969
- 1.0387885 0.1958449 0.1883041 0.344999  0.1110203 0.1351215 0.5456167
- 0.0848391 0.4934109 0.274039  0.6338652 0.1458043 0.1021482 0.570726
- 0.2800258 0.143063  3.3837316 0.5780589 0.0501503 0.1618515 1.053656
- 0.1922328 0.3733183 0.6485345 0.2302521 0.3923522 0.2985011 0.8203453
- 0.2540616 0.603358  0.1953512 0.1286786 0.3518798 0.1343072 0.5006282
- 0.0988199 0.2568007 0.1826157 0.2888602 0.0893627 0.1064053 0.2420023
- 0.5247148 0.2117079 1.6127272 0.4297393 0.0586055 0.161286  1.3779884
- 0.2230833 0.8204711 0.3708219 1.0417908 0.2846702 0.2412058 0.4925639
- 0.5947364 1.0018358 0.2411905 0.1381397 1.3005482 0.1220395 0.1561006
- 0.2415496 0.1282113 0.1144103 0.1648498 0.1156397 0.0901903 0.209879
- 0.8149546 1.1013168 0.822005  0.386728  0.0822186 0.1728599 1.9632099]</t>
-  </si>
-  <si>
-    <t>[0.3225838 0.4706671 0.5321548 0.3955767 0.5536879 0.3459336 0.8490534
- 0.2420066 0.506099  0.2259829 0.2320477 0.4832817 0.2277511 0.786315
- 0.1898981 0.5252797 0.4957897 0.4804322 0.1810712 0.1614042 0.3033493
- 1.0364615 0.5888052 3.1891172 1.2430943 0.1138208 0.2269233 1.4840502]</t>
-  </si>
-  <si>
-    <t>[0.2296778 0.5402264 0.5836265 0.2746893 0.5519255 0.4156467 0.9376592
- 0.2734383 0.657657  0.2479135 0.2049134 0.3934201 0.2534647 0.5366522
- 0.1198617 0.3885273 0.316079  0.679293  0.2132267 0.1327148 0.3435776
- 0.5684514 0.4348661 2.0641645 0.9479233 0.0711941 0.256259  2.0899983
- 0.231432  0.7939483 0.5380314 0.9973882 0.3547969 0.2563265 0.5293516
- 0.8174963 1.0147215 0.3015635 0.217046  1.4061647 0.2897058 0.1788477
- 0.1905934 0.2270979 0.1619127 0.2052346 0.2006482 0.1359549 0.2693167
- 0.8185238 1.2516003 1.8015279 0.723028  0.0794586 0.1819721 3.276917 ]</t>
-  </si>
-  <si>
-    <t>[0.1832638 0.4406687 0.5214777 0.2206049 0.4047473 0.3876476 0.770488
- 0.194519  0.5102178 0.1789221 0.1157273 0.2630276 0.1078271 0.4706021
- 0.0838884 0.3121107 0.2420756 0.7381328 0.167103  0.0712966 0.2553394
- 0.4433651 0.2634647 1.6585191 0.3691665 0.0602397 0.1166773 1.5804195
- 0.1731479 0.574513  0.3537094 0.832118  0.2795842 0.1603274 0.41992
- 0.5944294 0.9292192 0.2195826 0.1335248 0.8988282 0.2416151 0.0988218
- 0.0927943 0.1411586 0.086058  0.1443324 0.0931317 0.0953393 0.0985295
- 0.5091445 0.8210352 1.1246764 0.3821782 0.0539186 0.1055892 3.4233809
- 0.2431892 0.5487435 1.9565317 0.4430754 0.1735431 0.2445525 0.2001672
- 0.320237  0.3115156 0.1876869 0.2236248 0.2721977 0.2998282 0.1106595
- 0.1674417 0.1776302 0.1110405 0.1719215 0.1567593 0.0948781 0.191837
- 0.7636659 0.5747582 0.3326729 0.5392677 0.0760223 0.0764138 0.2697183]</t>
-  </si>
-  <si>
-    <t>[0.2134551 0.8127872 0.3773413 0.7818389 0.3603174 0.2573619 0.4908489
- 0.6621666 0.7752853 0.2893113 0.1967812 0.9795396 0.2344415 0.1981748
- 0.2266221 0.2976361 0.2829304 0.2883059 0.2301944 0.1615209 0.3220815
- 0.6313539 0.9899741 2.377963  1.4312495 0.1228228 0.1738639 2.2523282]</t>
-  </si>
-  <si>
-    <t>[0.1651804 0.5490332 0.291015  0.8156936 0.3664292 0.1905891 0.4957416
- 0.8235726 0.9951137 0.2166209 0.1331442 1.1543674 0.2174925 0.1647601
- 0.1323315 0.2348547 0.1865135 0.2463196 0.1647144 0.109963  0.2621131
- 0.5055573 0.8905416 1.6594976 0.7637816 0.0810622 0.145271  2.6855546
- 0.3148243 0.5205444 2.5844529 0.5737391 0.2036366 0.322965  0.2476815
- 0.3945684 0.3737448 0.1995032 0.2963448 0.3401043 0.3347607 0.1357931
- 0.1722279 0.2190032 0.1212681 0.2367838 0.1873096 0.0938315 0.2880746
- 0.6770153 0.5621026 0.9580499 1.249757  0.088065  0.109823  0.4481043]</t>
-  </si>
-  <si>
-    <t>[0.2104279 0.8961858 0.3100743 0.9676955 0.3625729 0.1826452 0.5305008
- 1.0565477 1.1395125 0.2548229 0.135213  1.3442731 0.3084518 0.1816949
- 0.1877627 0.2006889 0.1651198 0.4282968 0.1810503 0.1159084 0.3400263
- 0.7569719 1.2603021 1.577056  0.8067879 0.0616875 0.1300102 3.3399326
- 0.2126183 0.6508138 3.8070613 0.6119852 0.2488322 0.3038761 0.3637433
- 0.4558783 0.3469426 0.1875825 0.3385175 0.3291185 0.2755627 0.1145625
- 0.1557927 0.1921775 0.0989518 0.1950167 0.1437231 0.0801269 0.2502834
- 0.6557933 0.4153045 0.8743255 1.0560524 0.0683037 0.0801388 0.4750033
- 0.7340393 0.6784175 0.9604646 0.2722256 0.9363686 0.163049  0.2448465
- 0.3312693 0.3096664 0.2712636 0.2152559 0.2791142 0.2524823 0.3977097
- 0.5630666 0.3582322 0.1143342 0.2781908 0.2927957 0.0812615 0.2417084
- 0.703162  0.8103053 1.3428338 0.8780763 0.092745  0.1837249 1.4058438]</t>
-  </si>
-  <si>
-    <t>[0.3319144 0.4835093 2.2073413 0.5870815 0.2615047 0.3800215 0.3271805
- 1.0965988 0.4289598 0.2715376 0.3359725 0.5498333 0.5418782 0.186508
- 0.3190081 0.3555358 0.2167741 0.3516664 0.258694  0.1836575 0.4115709
- 0.7811974 0.9198327 2.0135057 2.403721  0.1507609 0.1488081 0.4917504]</t>
-  </si>
-  <si>
-    <t>[0.1717467 0.613692  2.1630486 0.5243574 0.212218  0.3282034 0.2992019
- 1.4855265 0.3406777 0.2049985 0.2806721 0.4609346 0.6247977 0.1299519
- 0.1528262 0.1974981 0.1510133 0.2698447 0.1484502 0.1068929 0.3206784
- 0.7824678 0.984304  1.0558619 1.5485879 0.0877897 0.0804956 0.7297257
- 0.6107151 0.6794864 0.8581512 0.2852486 0.7655026 0.1552775 0.3425516
- 0.2929033 0.2110335 0.2420498 0.2229202 0.3942147 0.3567332 0.3422902
- 0.6430669 0.3254289 0.1064703 0.2559216 0.3222347 0.0991888 0.2450473
- 0.8368057 0.5666746 2.0271812 1.5822755 0.0721782 0.2025461 2.3885863]</t>
-  </si>
-  <si>
-    <t>[0.147725  0.7053384 3.8003426 0.63397   0.2868614 0.3356734 0.2372447
- 0.6824825 0.3573754 0.1804775 0.3368505 0.4481128 0.3792717 0.1165759
- 0.1571378 0.2112944 0.1671844 0.2414823 0.153856  0.0841923 0.2977181
- 0.7471163 0.5248264 0.6981063 1.1060349 0.0964966 0.0951699 0.6775233
- 0.5310519 0.531008  0.7956336 0.2628665 0.892348  0.1241978 0.2711276
- 0.2579881 0.2563176 0.1779796 0.2054862 0.4020415 0.2649665 0.3341744
- 0.2978486 0.3719073 0.1146191 0.2296731 0.1849061 0.0826259 0.1945982
- 0.6586403 0.4118689 1.1635204 0.7988715 0.0619363 0.1594139 1.1966941
- 0.2306569 0.2800172 0.1280003 0.941509  0.224158  0.1043594 0.2602102
- 0.8250032 0.5900666 0.4574935 0.567985  0.1406528 0.3738435 1.1991362
- 0.6356559 0.1475702 0.120719  0.1327455 0.1893893 0.1090492 0.1953833
- 0.4086589 0.3593178 4.45784   1.651466  0.0934991 0.1412996 0.3168808]</t>
-  </si>
-  <si>
-    <t>[0.7703487 0.4869236 0.6978705 0.2566776 0.1688926 0.1653685 0.1819582
- 0.2941103 0.2171999 0.6369665 0.1761928 0.242568  0.3365868 1.2486638
- 0.1966153 0.163279  1.0658843 0.2351492 0.1675975 0.1411929 1.2143852
- 0.1646208 0.199547  1.7728878 2.3150993 0.1473127 0.3042258 0.5181337]</t>
-  </si>
-  <si>
-    <t>[ 4.8463072  2.1992498 16.6061812  1.9667587  0.2246868  0.2944385
-  0.4673076  0.709143   0.5072135  2.825773   0.1767766  0.3138854
-  0.2698497  0.8913542  0.1919833  0.5837586  0.3357688  0.2770913
-  0.3105527  0.4464351  1.0011667  0.1019148  0.1131614  0.1480005
-  0.2664395  0.0741676  0.9725408  0.3106825  1.2268539  0.3692384
-  1.0762804  0.243665   0.2191989  0.2089509  0.253574   0.3815828
-  0.3886888  0.2092298  0.1721897  0.3590631  1.4489389  0.4209781
-  0.1909422  0.4167094  0.1756488  0.4490574  0.1682551  0.2259922
-  0.4563713  0.1087857  0.2401197  0.0792209  0.0651337  0.0779199
-  0.0942204  0.5356495  0.3078391  0.2067833  0.2771403  0.2737508
-  0.2257413  0.327277   0.1956007  0.5406519  0.2758794  0.1329662
-  0.4446864  0.0951144  0.1489189  0.2574473  0.1294093  0.2744336
-  0.3111088  0.4120107  0.1209153  0.1139064  0.4210828  0.5318467
-  0.2779364  0.7772021  0.1589685  0.067816   0.174068   0.3946448
-  0.275641   0.3104182  0.7555099  0.7092108  0.3193085  0.4089508
-  0.3463067  0.8874788  0.2755309  0.2258369  0.2473574  0.502914
-  0.4540378  0.1943759  0.2263813  0.2057546  0.1419353  0.2039668
-  0.235179   0.098839   0.3353437  0.7373757  0.7770696  0.0907638
-  0.153448   0.1722653  0.1218996  0.1397931]</t>
-  </si>
-  <si>
-    <t>[ 7.3247247  2.5011536 22.3954696  2.11709    0.2133573  0.2579455
-  0.6216824  0.9078009  0.4086947  2.2886987  0.1321533  0.2496384
-  0.3670812  0.682504   0.1657249  0.5519542  0.1275357  0.2428185
-  0.359577   0.4643826  1.2242578  0.0511493  0.095081   0.2183612
-  0.1036057  0.0670938  0.9715687  0.3592055  1.5656413  0.4034796
-  1.1579101  0.1867328  0.1512656  0.2833538  0.1897387  0.3417787
-  0.3232512  0.1894024  0.1555954  0.1617328  1.6202889  0.2482267
-  0.0849513  0.2883058  0.1820994  0.3291574  0.1324205  0.217018
-  0.2920473  0.0853993  0.1870079  0.1078582  0.0839041  0.0338644
-  0.0781272  0.415668   0.2599274  0.2600104  0.2908413  0.2827299
-  0.2355685  0.4252716  0.1065104  0.9280155  0.1827681  0.169852
-  0.2464839  0.0645691  0.1064244  0.2503395  0.1184598  0.1700368
-  0.2877275  0.6059679  0.0368772  0.1033538  0.2118636  0.1956682
-  0.1232329  0.481012   0.0731464  0.0500515  0.1077862  0.5667613
-  0.1759327  0.1950418  0.1434661  0.3370673  0.3977424  0.2217754
-  0.8313859  0.2082305  0.983308   0.1706235  0.1580418  0.2470285
-  0.1304707  0.4414726  0.0717022  0.0875898  0.2023317  0.1521326
-  0.0915081  0.0636385  0.2087824  0.8120722  0.3144383  0.2049392
-  0.0490947  0.0681824  0.0865168  0.2729121  0.1626777  0.3346144
-  0.1376839  1.6067864  0.3064128  0.2277746  0.2195683  0.7395605
-  1.0132511  0.1613553  0.1602942  1.3206279  0.2022124  0.1804409
-  0.1617654  0.071663   0.0609578  0.1126101  0.1302223  0.0532761
-  0.1901383  0.6139376  1.0915688  0.0969268  0.0833265  0.0374079
-  0.1613108  1.0158537  0.2829473  0.4499503  1.0400409  0.6479763
-  0.298892   0.2434554  0.2951971  0.571245   0.2211957  0.2007513
-  0.2631524  0.2986962  0.4101718  0.1546095  0.1436352  0.2504433
-  0.098366   0.2336128  0.1920513  0.0657412  0.2313943  0.6959279
-  0.3625793  0.1734342  0.1031237  0.0857097  0.0906313  0.0975035]</t>
-  </si>
-  <si>
-    <t>[ 4.3704394  0.8993274 11.5190952  1.645015   0.1894855  0.2720389
-  0.4432593  0.6884256  0.2464158  1.9365245  0.1695536  0.2484541
-  0.1735014  0.6997252  0.2087172  0.4289573  0.1535096  0.1346114
-  0.3713026  0.2381293  0.9627472  0.0446869  0.0894118  0.1480901
-  0.2871202  0.0666658  0.5141866  0.2532088  1.0002437  0.1787914
-  0.8628287  0.1745717  0.1680493  0.307962   0.2222613  0.2159087
-  0.2662644  0.1554883  0.1210763  0.1959286  0.9711957  0.2131328
-  0.0897309  0.2453693  0.1121687  0.3214679  0.2039652  0.1405604
-  0.2192865  0.0470835  0.1360202  0.1022812  0.1923473  0.0531676
-  0.073302   0.3850046  0.3894608  0.2092887  0.458151   0.3731874
-  0.3479711  0.4094233  0.2546624  0.8177696  0.3029304  0.1945479
-  0.6478422  0.101585   0.1931683  0.3403623  0.1080352  0.2028967
-  0.3656289  0.5016643  0.1750279  0.0966626  0.3063301  0.6744545
-  0.3745339  0.4910855  0.1780131  0.0528981  0.233194   0.4282819
-  0.2908692  0.3492676  1.436473   0.821066   0.474593   0.3943841
-  0.3828361  0.9518627  0.3839104  0.2478644  0.349511   0.6448734
-  0.6944084  0.1253293  0.2138251  0.2835443  0.1685327  0.2588758
-  0.2765571  0.1849967  0.5489645  1.1720627  1.027557   0.2109158
-  0.0748344  0.2067779  0.2336139  0.2220414  3.2575851  1.4637433
-  9.9855997  1.1967195  0.1552161  0.2264608  0.4265835  0.7289703
-  0.2177219  1.7729485  0.1316649  0.2096325  0.1804323  0.7675734
-  0.1513344  0.227616   0.1700955  0.2529904  0.3217234  0.4513142
-  0.770326   0.078387   0.1307441  0.1375134  0.2473823  0.078823
-  0.5499103  0.2678535  1.2404109  0.2927699  0.6890767  0.2181044
-  0.0933432  0.3155214  0.2031562  0.2560793  0.2655043  0.1587932
-  0.1049932  0.1953053  1.112352   0.3839644  0.0749749  0.2442326
-  0.1730074  0.2679898  0.1374054  0.0904712  0.271442   0.0863625
-  0.1124413  0.101902   0.1261504  0.0516533  0.0713633  0.6148933]</t>
+    <t>[ 2  0  9  3 40  1 13 28  7 26 20 30 27 15  6 55 24 45 19 11  8 41 36 48
+ 43 35 44 18 17 29 31 33 39 23  5 34 14 46 16 12 38 37 32 51  4 50 47 42
+ 10 52 22 54 25 49 21 53]</t>
+  </si>
+  <si>
+    <t>[ 2  0  9  3  1 28 40 13  7 26 20 30 55 15 63 79  6 83 41 77 19  8 18 11
+ 73 43 45 59 48 35 29 36 76 72 61 33 27 24 31 39 66 17 12 34 23 56 78 69
+  4 47 64 60  5 10 62 71 14 32 57 44 50 46 58 37 38 68 65 16 51 42 82 52
+ 54 70 67 75 49 21 22 74 25 53 80 81]</t>
+  </si>
+  <si>
+    <t>[24  2 27  0 23 12 15 13  1 20 17  8 16  9  7 19  6 18  3  4 11  5 14 22
+ 10 26 25 21]</t>
+  </si>
+  <si>
+    <t>[51  2  0 55 27 12 52 13 35 29 15 24 30  1 20 49  8 41  9 38 33 17 16  7
+ 48 45 43 11 23 28  6 32  3 36 18 19 44 31 54 50  5 40  4 46 37 22 14 34
+ 47 10 42 25 21 39 26 53]</t>
+  </si>
+  <si>
+    <t>[51  2  0 12 79 27 83 77 62 55 13 35 69 29 30 24 64 15 52 60 59 45 67 20
+ 32 23 61  9 17 48 49 80 33 73  8 57  1  6 58  7 43 41 38 18 19 78 76 71
+ 11  3 63 36 16 72 65  5 28  4 44 31 68 56 54 66 10 82 40 70 37 34 21 50
+ 14 74 47 22 26 42 75 46 39 25 81 53]</t>
+  </si>
+  <si>
+    <t>[23 24 27 15 13  7  1 20 21  2 10 17 16 18  8  4  5 26 12  0 22  3 14 19
+  6  9 11 25]</t>
+  </si>
+  <si>
+    <t>[23 51 27 49 55  2 34 24  7  1 41 13 50 52 36 15 32 20 29 39 17 30 10  4
+ 48 31 33 43 21  5 45  0  8 16 28 44 37 26  3 40 12 22 38 54 35  6 42  9
+ 46 19 18 11 14 47 25 53]</t>
+  </si>
+  <si>
+    <t>[23 83 51 55 67 79 27 78 64  1 59  7 34 57  2 36 63 77 20 17 41 29 32 62
+ 49 30 52 24  4 80 15 13  5 10 33 48 76 58 45  0 50 16 39 60 21 65 35 43
+  3 37 18 61 31  8 70 28 44 56  6 26 69 82 38 71 73 68 54 72 12 22 66  9
+ 40 74 11 19 46 14 75 42 47 53 81 25]</t>
+  </si>
+  <si>
+    <t>[23 27 21 24 13  6 17  4 11 15  8  1 16  2 22 20  5  3  0  9  7 18 14 26
+ 12 10 19 25]</t>
+  </si>
+  <si>
+    <t>[55 23 27 51 39 50 36 49 31  6 29 52 24 35  1 17  8 13  2  4 34 21 15  5
+ 30 16 22 11  3 32 48 20  0 37  7 45  9 10 28 43 46 26 44 42 41 40 33 38
+ 12 54 18 47 19 14 53 25]</t>
+  </si>
+  <si>
+    <t>[55 58 23 27 39 51 31 36 80  6 35 29 52 17 77 57 50  8 79 21 78 24 49 59
+  4 30 13 63 34 83  2  1 15 56 22 61 68 32 67  5 16 11 66  7 65 20 62 71
+ 64 60 37 76  0  3 28 40 12 33 46 73 10  9 48 43 69 26 54 74 45 70 38 18
+ 41 82 47 42 44 14 19 72 75 81 53 25]</t>
+  </si>
+  <si>
+    <t>[23 27 24 11 22  8  1  3  7 21  2  6  4 15 17 20  9 16 14  5  0 18 12 13
+ 26 10 19 25]</t>
+  </si>
+  <si>
+    <t>[27 30 23 11 51 24  8  3 52 22  1 29  7 21 31 50 49  2  6 39 35 17 55  4
+ 40 33 28 36 34 15 38 20 43 48 45  9 12 37 42 46  5  0 32 13 16 14 41 18
+ 10 54 26 47 19 44 25 53]</t>
+  </si>
+  <si>
+    <t>[30 27 23 83 79 11 22  8 52  7  3 58 60  1 56 57 80 24 21 51 29 31 77 78
+  6 49 50 17 40  4 70 35 55  2 33 36 20 71 69 39 38 67 62 12 68 63 34 28
+ 59  9 73 82 64 74 15 14 48 13  5 45 18 16 65 37 10 76  0 66 32 42 61 43
+ 75 72 46 26 44 41 54 47 19 81 25 53]</t>
+  </si>
+  <si>
+    <t>[24 23  2  7 22 21 27 11 12  3  1 20  8  6  0  5 14 15 17 10  4  9 18 16
+ 13 19 26 25]</t>
+  </si>
+  <si>
+    <t>[ 2 55 51 24  7 22 23 52 49 32 30 28 21 42 27  1 29 50  3 12 11 39 41 43
+  8  5 40  6 35  4 34 10 17 31 46 45 48 37 20  9 36  0 38 15 14 18 54 33
+ 44 19 16 47 13 25 26 53]</t>
+  </si>
+  <si>
+    <t>[79  2 24 80 51 52 32  1 69 23 63 30 21 59 55 66  7 64 22 49  3 70 29 27
+ 28 65 50 83 77 41 12 39  8 42 78 43 40 10 68 34  5 17 11 58 62 20 35 31
+  6 74 60 15  4 38 36 76 82  0 46  9 54 33 57 16 37 45 48 56 18 75 73 72
+ 67 14 71 61 44 13 19 81 25 26 53 47]</t>
+  </si>
+  <si>
+    <t>[24 23 13 20 16  0  9  2 27  1 12 26  3  7 11 17  8 10  6  5 22 14 15 18
+ 25 21 19  4]</t>
+  </si>
+  <si>
+    <t>[  2   0   9   3  28   1  40  13   7  79  55 105  20  63  30  91  86  26
+  87  77   6  15  17  45  96 106  24  73  83  48 104  27  43  59  90  95
+  66  36  61   8  92  35  11  88  18  39  72  69  89  19  50  56  31  85
+   5 102 101  94  99  76  78  60  93  12  41  34  29  57  64  98  37  71
+  14  58  84  44  46 111  33  32   4  23  16  38  82 107  52  68  65  62
+  47  10  51  97 108 100 110  70  42 109  80  49  22 103  74  54  67  75
+  25  21  81  53]</t>
+  </si>
+  <si>
+    <t>[  2   0   1   9   3  28  30  40 115 134  20  79 139 142 120  92 123 133
+   7  26  90 119  55  13  63  19  45   6 105  73 161  83 143  88  97   8
+  27  41 162  48 151 111  15  95  43 152  12  66  56   5 116  35  36 144
+  18 147  89  29  61 106  33  87 146  58 124 148  59 145  91 107  69 140
+ 157  80 126 108 150  16 160  77 164 121 118 114  76 141  31 155  93  84
+  14  39  17  78  86  64 158 138  72  57  11  85 149 135  34 117   4  24
+  65 112 101  10  44  62 113 100 166 122  71  94  42  32 125  82  96  37
+ 129  38 136 104  23  60  46 153 110 130 154  68  22  99 102 167  49 165
+ 156  98 132  52  50  51 159  67 131  54  21 128  70  47 163 103 127  25
+  74  75  53  81 137 109]</t>
+  </si>
+  <si>
+    <t>[  2 114 112   0   9 121  86   3 115   1 152 113 105  63  40  28  83  87
+ 106 132  96  91 140  77  20  13   7 138  30  26  88 119 118  79  66 125
+  76  95  58  89 127  61  92  59  85 142  90 104  73  69  55  27  56   6
+ 102  72  94  98  41  45  93  17 167  35  64 153 155  99  15 141  33 148
+ 131 139  71 120  84  48  57  14  11 147  60  65 157 101 160 111  36  97
+   8 109  12 116 145  62  50  29  78 117  18  24  31  74  19  34 143 135
+ 100  23   5  82 130 129 122  80 108 149  43 123 151  46 107 146   4  39
+ 150  37  70  44  32 158  68 128 126  10 103 162 124 134  42 110  38 136
+  16 156  47  67 159  54 144 154  52 161  22  81  25  75  51  21  53 133
+ 164  49 166 137 163 165]</t>
+  </si>
+  <si>
+    <t>[1.3394342 0.759035  4.7096088 0.8784838 0.1482545 0.1897016 0.3336221
+ 0.5911443 0.2387939 1.0302667 0.1298618 0.3093519 0.2454701 0.6258835
+ 0.2247827 0.4068073 0.2571149 0.2507268 0.311244  0.3120371 0.6256429
+ 0.0898622 0.1053226 0.200398  0.4118866 0.0897932 0.5151183 0.2879237]</t>
+  </si>
+  <si>
+    <t>[3.1202244 0.9783059 8.640272  1.4795966 0.182508  0.2323321 0.5207256
+ 0.8396913 0.3515157 1.7571087 0.1439882 0.3525749 0.2022785 0.8876282
+ 0.2213478 0.5691243 0.212023  0.2936197 0.2975868 0.3632536 0.6788696
+ 0.0889954 0.1323155 0.234074  0.3803544 0.1166073 0.731384  0.5936739
+ 0.8766891 0.2747301 0.6562351 0.2659016 0.1893115 0.2578744 0.2231166
+ 0.3062357 0.3387569 0.1912755 0.1945291 0.2498528 1.07587   0.3467099
+ 0.1559506 0.3121408 0.2975997 0.3727755 0.2137481 0.1575069 0.3295967
+ 0.1138036 0.1700146 0.1889944 0.1408575 0.0875134 0.118408  0.4516927]</t>
+  </si>
+  <si>
+    <t>[ 3.7976994  1.6666801 12.1266424  1.8574281  0.243777   0.2182138
+  0.4861856  1.0441037  0.3934029  2.4026533  0.2175318  0.3626788
+  0.2622927  1.1268307  0.2038939  0.6035535  0.1507997  0.2638054
+  0.3855334  0.3995537  0.7488649  0.0911026  0.085528   0.2502191
+  0.2834569  0.0755242  0.9250057  0.2964165  1.3756604  0.3072657
+  0.6848441  0.2825583  0.2018913  0.2975081  0.2529033  0.321011
+  0.3055009  0.1713516  0.1686623  0.2672402  1.2528943  0.4585671
+  0.1495937  0.3374169  0.1956038  0.3284683  0.1753356  0.2302957
+  0.3217483  0.0980767  0.1772313  0.1507046  0.1412946  0.0730482
+  0.1304926  0.6823685  0.2489703  0.1970708  0.1731843  0.3218609
+  0.2242436  0.2982655  0.2118291  0.5230224  0.2270894  0.1582275
+  0.2655181  0.1144174  0.1648179  0.2438252  0.1230228  0.2115676
+  0.3010559  0.3472202  0.0825482  0.1067451  0.3052657  0.4155672
+  0.2475008  0.4928324  0.065521   0.0634492  0.1469921  0.4735682]</t>
+  </si>
+  <si>
+    <t>[0.8825512 0.5179848 1.316751  0.2651743 0.2256664 0.2095888 0.3033134
+ 0.3354545 0.3764626 0.3475418 0.1784662 0.2187883 0.7413251 0.5497557
+ 0.2072378 0.6140414 0.3738257 0.4294986 0.2885337 0.3281406 0.5010791
+ 0.1342702 0.2017592 0.8793644 1.5564648 0.1422574 0.1545426 1.254361 ]</t>
+  </si>
+  <si>
+    <t>[1.3622112 0.5752427 1.8375361 0.2987836 0.2073055 0.2149083 0.3284012
+ 0.3948545 0.4332875 0.4116198 0.1678853 0.3786184 1.165292  0.7664155
+ 0.1840844 0.6597348 0.3950431 0.39748   0.2932329 0.2905178 0.50945
+ 0.1213216 0.2014508 0.3716674 0.6513479 0.122788  0.1165571 1.297736
+ 0.3521149 0.6707959 0.5788919 0.2667253 0.3199895 0.3998784 0.1810328
+ 0.7222024 0.2985702 0.2018195 0.4063081 0.1185037 0.2098582 0.4229291
+ 0.134892  0.3824715 0.2861875 0.3840359 0.2056508 0.1719854 0.3926621
+ 0.4906712 0.2267327 2.7236889 0.8985565 0.0564145 0.2333461 1.3006855]</t>
+  </si>
+  <si>
+    <t>[1.8665773 0.355967  2.8785384 0.2917603 0.2508263 0.2624293 0.3532727
+ 0.3472613 0.3593271 0.4183931 0.1811714 0.3024678 1.27503   0.9199229
+ 0.144559  0.6158406 0.2741763 0.4095281 0.3145215 0.3127658 0.4718936
+ 0.1517452 0.1353739 0.4323779 0.6191441 0.0819942 0.1316216 1.1970701
+ 0.2597393 0.7311622 0.6905574 0.2319047 0.4449747 0.3685391 0.1614996
+ 0.8584458 0.2875839 0.1636673 0.3167306 0.0986172 0.1672861 0.317013
+ 0.1293629 0.3343645 0.2497971 0.5162075 0.1084411 0.135391  0.4039244
+ 0.3978647 0.1462503 3.2340214 0.6083723 0.0503779 0.2170182 0.9802332
+ 0.2242391 0.3562658 0.349612  0.5218483 0.5718989 0.4269225 1.0154237
+ 0.2888716 0.6187653 0.2627897 0.2140895 0.4935179 0.2247302 0.8224613
+ 0.1639193 0.3059214 0.2723005 0.3654832 0.1395244 0.1178308 0.3063211
+ 1.117012  0.3100632 1.2497606 0.390327  0.0734053 0.1698787 1.1860826]</t>
+  </si>
+  <si>
+    <t>[0.2792286 0.7052668 0.6167185 0.2257815 0.3074707 0.3051842 0.2048603
+ 0.7311589 0.3090726 0.1961618 0.5688889 0.179866  0.2814586 0.7965221
+ 0.2176316 0.8035176 0.383671  0.5327807 0.3489057 0.2082339 0.6666119
+ 0.6210937 0.2791259 2.5874526 1.5435218 0.1673692 0.2857419 1.0160498]</t>
+  </si>
+  <si>
+    <t>[0.2946224 0.812609  0.954143  0.2009707 0.4140109 0.3054319 0.1803864
+ 0.8257911 0.2606194 0.1669423 0.4285036 0.1165465 0.198451  0.6833054
+ 0.1019058 0.5352592 0.2591358 0.4772707 0.1472297 0.154801  0.5082675
+ 0.3147229 0.195318  2.5215724 0.8435431 0.0862142 0.2115584 1.2828307
+ 0.2422463 0.4933679 0.4765669 0.3780294 0.5302895 0.3323885 0.9021516
+ 0.1818815 0.5420621 0.2236683 0.1843343 0.4823655 0.2002551 0.7972299
+ 0.1716832 0.3218633 0.2314443 0.3032243 0.164281  0.0993212 0.3873031
+ 1.2545506 0.6255231 1.5275261 0.5664936 0.0745281 0.1828522 1.103152 ]</t>
+  </si>
+  <si>
+    <t>[0.352208  1.1791776 0.8316894 0.2710377 0.4679986 0.4103525 0.2141326
+ 1.0743729 0.2497487 0.1512145 0.4096456 0.140133  0.1585591 0.4357032
+ 0.1097176 0.4452363 0.3266929 0.6696647 0.267787  0.1198129 0.6779189
+ 0.3052939 0.1581511 3.5366461 0.5029629 0.0564326 0.2053758 1.2240614
+ 0.2413101 0.5917032 0.5430189 0.2560402 0.5895864 0.4064135 0.9981498
+ 0.2794583 0.7879684 0.2688817 0.1960687 0.3231797 0.1485508 0.6145159
+ 0.101727  0.2781263 0.2274077 0.3620481 0.1119726 0.1005033 0.3926649
+ 0.5700575 0.3413868 1.775523  0.5203288 0.085905  0.1830781 1.677596
+ 0.2198733 0.8781513 0.3642803 1.1403904 0.3147787 0.2610729 0.5753819
+ 0.7512641 1.1928375 0.299     0.1537595 1.4243027 0.1858185 0.2026387
+ 0.2416565 0.1880749 0.1615403 0.1880072 0.1442178 0.1055483 0.370644
+ 0.7049348 1.195773  1.3294107 0.4541661 0.0730877 0.2017303 2.113817 ]</t>
+  </si>
+  <si>
+    <t>[0.2460428 0.4554055 0.4284225 0.3198054 0.4978166 0.3420194 0.7146932
+ 0.2176949 0.4683318 0.2205037 0.169818  0.4870325 0.1926733 0.7955425
+ 0.1939668 0.4762801 0.4413348 0.5623672 0.2108916 0.1522058 0.3423342
+ 1.1859778 0.3727868 2.9051741 1.1378261 0.1230854 0.1927022 1.3087496]</t>
+  </si>
+  <si>
+    <t>[0.2700513 0.6722494 0.4928084 0.3003539 0.473445  0.3907229 0.8211839
+ 0.2625929 0.6354444 0.240696  0.2229162 0.3046799 0.1577457 0.5240326
+ 0.1100747 0.4028125 0.3587685 0.6577249 0.1455805 0.1148512 0.2738745
+ 0.4210821 0.3074383 2.2267738 0.7349854 0.0856654 0.1909008 1.7875048
+ 0.2193394 0.8110239 0.3871225 0.9531962 0.2943135 0.1817913 0.4656325
+ 0.6913432 1.1383592 0.2651259 0.1667338 1.2496465 0.1833801 0.1834387
+ 0.1844701 0.2022352 0.1900932 0.2469646 0.1954243 0.1356034 0.2845996
+ 0.9857085 1.1924086 1.5896209 0.7809942 0.093579  0.1553939 2.8406324]</t>
+  </si>
+  <si>
+    <t>[0.2748191 0.4658294 0.4722653 0.2692284 0.6322628 0.3769071 0.9719482
+ 0.3088621 0.8069556 0.2008525 0.2044874 0.3528189 0.2463003 0.6030175
+ 0.1163197 0.4534781 0.3587443 0.8944059 0.1590749 0.1019896 0.3061139
+ 0.802014  0.4364926 2.4884586 0.759239  0.0625484 0.1852966 1.844849
+ 0.2637769 0.9445815 0.6105885 1.3019313 0.4037546 0.232768  0.5495101
+ 0.9556644 1.1873201 0.2853919 0.1613808 1.590937  0.2464909 0.1428573
+ 0.1250371 0.1950959 0.1199578 0.1714235 0.2254369 0.1262533 0.1953764
+ 0.7003173 0.8110674 1.3136636 0.9074301 0.0672763 0.1740573 4.0427042
+ 0.4411167 0.813936  3.5088048 0.6640826 0.2875588 0.4174118 0.3050116
+ 0.6014379 0.2926525 0.3066435 0.3501631 0.3818633 0.4047984 0.1887306
+ 0.1679236 0.2935924 0.1015354 0.2104506 0.1734331 0.0950828 0.279756
+ 0.8245995 0.7917179 0.8050476 1.139458  0.0831735 0.1363901 0.50554  ]</t>
+  </si>
+  <si>
+    <t>[0.2229206 0.7067377 0.5073339 0.7005388 0.3614357 0.2282488 0.4986238
+ 0.6428437 0.826559  0.3061023 0.1761657 0.9850892 0.1967434 0.194077
+ 0.2319586 0.3354436 0.2805811 0.3174556 0.2110933 0.1636731 0.3094766
+ 0.524219  0.9048621 2.5664428 1.1948135 0.1193257 0.1828084 2.2806286]</t>
+  </si>
+  <si>
+    <t>[0.2421643 0.8710932 0.6004255 1.1527987 0.4167654 0.2475954 0.5907705
+ 0.8016795 1.217085  0.2978472 0.1690707 1.4745266 0.2687677 0.2348837
+ 0.1949403 0.3414188 0.2228796 0.4350721 0.1712996 0.1237692 0.3312632
+ 0.7903655 1.1466548 2.2321726 1.2196856 0.1087374 0.1615286 3.2015309
+ 0.4124723 0.8223005 2.9782451 0.7464981 0.2355474 0.4134806 0.3742615
+ 0.4429581 0.3801603 0.2642625 0.3403569 0.5159593 0.4147687 0.1772421
+ 0.2580158 0.3281651 0.1199886 0.3105985 0.252923  0.1307143 0.3115343
+ 0.6733022 0.7426248 1.3480137 1.1518969 0.0924587 0.1629838 0.4287363]</t>
+  </si>
+  <si>
+    <t>[0.175497  0.9811238 0.3973343 1.0606986 0.4659594 0.2246907 0.5984729
+ 1.0717706 1.32229   0.2815997 0.1790367 1.7213735 0.2974218 0.2268768
+ 0.2482327 0.2529548 0.2050631 0.4817443 0.2066337 0.0940554 0.3499338
+ 0.8003227 1.3319573 1.9736664 0.8094631 0.0792252 0.1251328 3.2695959
+ 0.2858689 0.7453697 4.2691808 0.722076  0.1748872 0.3777721 0.2869965
+ 0.4562714 0.3730512 0.182037  0.3283953 0.3300823 0.4789108 0.1090336
+ 0.1615855 0.1530978 0.1172742 0.2194145 0.1292131 0.0982696 0.228342
+ 0.5531375 0.5401508 0.75005   1.3065257 0.0747477 0.1065715 0.4241456
+ 0.9303534 0.8825702 1.0432106 0.2821757 1.0059049 0.1591372 0.2997762
+ 0.2877509 0.2684394 0.2025055 0.1753538 0.3008576 0.2904431 0.3441252
+ 0.4655893 0.3441644 0.1321135 0.2726823 0.2678485 0.1447763 0.1784362
+ 0.6655866 0.6285014 1.7754203 0.8761208 0.0812923 0.2720861 1.8953241]</t>
+  </si>
+  <si>
+    <t>[0.3019757 0.4096015 1.6373861 0.4478031 0.2275688 0.298488  0.3417736
+ 0.8551608 0.3632623 0.2273852 0.258834  0.4538356 0.4488101 0.1701772
+ 0.2905963 0.2884257 0.1923809 0.2636869 0.2267427 0.1444843 0.3668662
+ 0.6634542 0.8378882 1.773697  2.1044316 0.1206294 0.1329826 0.4966071]</t>
+  </si>
+  <si>
+    <t>[0.1887304 0.5080095 2.776588  0.4748965 0.2703738 0.2846456 0.2798792
+ 1.2017284 0.3027592 0.2012164 0.2667994 0.3839728 0.4215569 0.0898829
+ 0.166901  0.1726076 0.1067148 0.2650857 0.161742  0.12465   0.2046426
+ 0.5424446 0.8520568 0.8479729 1.5659697 0.0828132 0.0803973 0.53133
+ 0.5737043 0.5066299 0.662866  0.2355156 0.6853075 0.1393284 0.2674356
+ 0.2758375 0.1941336 0.2142298 0.1740927 0.3767824 0.2829441 0.3711185
+ 0.5387657 0.3040193 0.1344403 0.2223102 0.2328154 0.1015356 0.2186426
+ 0.7329807 0.4945267 1.6262966 0.8474442 0.0761048 0.151037  1.7263451]</t>
+  </si>
+  <si>
+    <t>[0.1920991 0.9503644 3.1491112 0.6480959 0.2193487 0.2985184 0.2315211
+ 0.7055762 0.3701459 0.1711181 0.3230755 0.270405  0.3850966 0.1084609
+ 0.1131799 0.2198723 0.1610923 0.2891101 0.1506965 0.1061535 0.2611137
+ 0.8311196 0.6819123 0.9244925 1.3177298 0.0853513 0.0789031 0.5929394
+ 0.5402195 0.6009138 0.8394469 0.2412345 0.9776273 0.1679662 0.3137524
+ 0.2576132 0.2011693 0.1587674 0.2060053 0.3750704 0.3256541 0.3927546
+ 0.351052  0.3445493 0.1093956 0.1585349 0.1743345 0.0602288 0.1552595
+ 0.6518731 0.4350022 1.0699435 1.0418188 0.06421   0.169433  0.7583152
+ 0.1531151 0.1667671 0.2633559 0.8191233 0.2286503 0.1101474 0.2621198
+ 0.9226009 0.688444  0.4377395 0.7346315 0.1199357 0.3229166 0.9392845
+ 0.6271906 0.1114072 0.1211838 0.1299805 0.2309232 0.1444802 0.1985659
+ 0.4198648 0.3461473 4.6452107 1.1485025 0.0897609 0.195597  0.4253821]</t>
+  </si>
+  <si>
+    <t>[0.7072274 0.5007722 0.5329534 0.2847476 0.1160234 0.1748096 0.1834318
+ 0.2654913 0.1990768 0.5999988 0.1963959 0.2200993 0.3120301 1.1897102
+ 0.1566672 0.1438436 0.940516  0.2156055 0.1378219 0.1246445 0.9867704
+ 0.1283265 0.1722746 1.403785  2.1613733 0.1370466 0.3033128 0.5022369]</t>
+  </si>
+  <si>
+    <t>[ 5.2205447  1.6942187 13.1365119  1.9091678  0.1710222  0.2210759
+  0.4916406  0.8450134  0.3092114  2.4498915  0.1271304  0.2940857
+  0.2074619  0.9681108  0.1979202  0.489346   0.1629726  0.4547571
+  0.2735271  0.2448251  0.7643369  0.0613025  0.0846517  0.1685469
+  0.4174705  0.0638347  0.5910246  0.3448811  1.7487121  0.2014922
+  0.6871146  0.2365832  0.1711493  0.1730679  0.2048671  0.3010512
+  0.3116247  0.1984587  0.1508481  0.2725689  1.3030588  0.205278
+  0.0996454  0.3433376  0.1829104  0.4472734  0.1797665  0.1312794
+  0.3536031  0.0851716  0.242301   0.1245095  0.1435819  0.0434699
+  0.0728049  0.7794709  0.2410034  0.2011067  0.1978199  0.3276514
+  0.2133343  0.311087   0.1326794  0.6972883  0.2001958  0.137868
+  0.3141864  0.0722468  0.141624   0.2573115  0.102632   0.1982839
+  0.2580592  0.3879234  0.0774307  0.071766   0.2141428  0.5194474
+  0.2139379  0.793558   0.0903617  0.0531062  0.1470652  0.3557864
+  0.1919854  0.2265228  0.6044078  0.5215278  0.2879369  0.2544642
+  0.3203904  0.6148809  0.3066611  0.2129067  0.2180555  0.3182881
+  0.4464425  0.1204947  0.1995956  0.2171812  0.1147708  0.2195766
+  0.2201954  0.0797432  0.3513473  0.7707884  0.4354585  0.1444102
+  0.1188783  0.0965519  0.1041893  0.1742804]</t>
+  </si>
+  <si>
+    <t>[ 8.0590573  3.1015365 19.3608047  2.2808771  0.1863883  0.3763875
+  0.6688779  0.942677   0.4978579  2.6679542  0.1757798  0.2018194
+  0.3956367  0.7485068  0.2090408  0.4169907  0.2369333  0.2076234
+  0.3633647  0.7067695  1.1443952  0.0886938  0.1307454  0.1483092
+  0.1831572  0.0652776  0.9426097  0.4949004  2.1713572  0.3445387
+  1.8000782  0.2205414  0.1655692  0.3405647  0.1932812  0.3690658
+  0.3672618  0.1622095  0.152037   0.2078395  1.4033494  0.482417
+  0.1668472  0.4063118  0.1751607  0.6933279  0.1401111  0.0838964
+  0.4494926  0.1229336  0.1153757  0.1027007  0.1177397  0.0594439
+  0.0898746  0.846557   0.3772036  0.2024797  0.3123283  0.2981299
+  0.1478338  0.3424378  0.1736313  0.7430504  0.2063291  0.1828082
+  0.3909765  0.0925645  0.1316179  0.2536182  0.0842119  0.16887
+  0.2035956  0.5907413  0.0649259  0.0605022  0.2251604  0.2335456
+  0.2073495  1.1384574  0.2496695  0.0449994  0.1639762  0.5543701
+  0.2120748  0.1981344  0.2064984  0.32443    0.5142293  0.3585152
+  0.941398   0.2803356  1.0787599  0.2125779  0.167762   0.4096467
+  0.1623451  0.5051134  0.1192398  0.1304148  0.1708244  0.181821
+  0.1277653  0.0790483  0.1511796  0.6617848  0.342052   0.2739738
+  0.241526   0.0337851  0.1368035  0.4179925  0.1818467  0.171588
+  0.2275832  1.2692824  0.3715034  0.1915362  0.2281799  0.9352673
+  1.117229   0.229159   0.1691442  1.0720136  0.3117396  0.164202
+  0.2480591  0.0766872  0.0877683  0.1600193  0.1362511  0.0901921
+  0.1184526  1.0029359  1.1636322  0.1971719  0.1519321  0.0360951
+  0.205395   1.1348033  0.2527557  0.2219391  1.1285253  0.5287192
+  0.365095   0.2936611  0.319414   0.3630274  0.3004319  0.1973378
+  0.2390002  0.4305722  0.4059547  0.1384723  0.134152   0.2148102
+  0.1192891  0.2512906  0.2058671  0.0951217  0.2340512  0.5761243
+  0.4594942  0.0816182  0.2309473  0.1222338  0.1694739  0.1253429]</t>
+  </si>
+  <si>
+    <t>[ 3.754906   1.2981934 12.0148161  1.761009   0.158045   0.1887871
+  0.3798667  0.6731856  0.2413073  2.7998799  0.1395211  0.2719643
+  0.2340616  0.6775639  0.2725975  0.3063295  0.114714   0.3342706
+  0.2092749  0.2000792  0.720578   0.0714277  0.0894366  0.1907003
+  0.2044821  0.077355   0.6400492  0.4017524  1.0398917  0.2162813
+  0.6400695  0.2040624  0.1527744  0.3000622  0.1993043  0.3284246
+  0.2516872  0.1573108  0.1250542  0.157991   1.0423721  0.361467
+  0.1264573  0.1776353  0.1535085  0.3584459  0.163417   0.1123914
+  0.2773423  0.0565365  0.2203125  0.0737436  0.0904549  0.0618717
+  0.0983893  0.4047913  0.3984704  0.2758951  0.5281985  0.4853693
+  0.270056   0.5050442  0.2275968  1.0930374  0.3257101  0.2657988
+  0.598267   0.1116854  0.1508604  0.4213953  0.154335   0.2913424
+  0.3708184  0.4266803  0.2032302  0.0744429  0.5616968  0.7566024
+  0.214278   0.6129506  0.1804987  0.0872728  0.187795   0.9738556
+  0.2838896  0.4843375  1.8254433  0.9374526  0.6344016  0.5261911
+  0.4437716  0.7635038  0.4891695  0.3443841  0.3671148  0.5613646
+  0.8136799  0.2441494  0.3662887  0.3075938  0.192218   0.2557558
+  0.3715972  0.1377004  0.4365603  1.1059172  0.8844484  0.1605384
+  0.1791624  0.2377687  0.126014   0.2518852  3.7933315  1.1168405
+ 11.7242177  1.4814661  0.2305012  0.21161    0.6170416  0.6313036
+  0.2879886  2.0252027  0.1842689  0.1764121  0.1329478  0.5680866
+  0.1482768  0.5098224  0.1483291  0.1868906  0.1872872  0.2930597
+  0.8475187  0.0591058  0.1303997  0.1941912  0.116569   0.0508495
+  0.6534705  0.2915272  0.7579509  0.3019708  0.4547029  0.1975084
+  0.0972038  0.2291091  0.1584546  0.2703889  0.2940744  0.1777272
+  0.1573698  0.173844   1.1477128  0.3171154  0.0952208  0.3124151
+  0.113731   0.2629873  0.1518868  0.1073229  0.2556535  0.0901183
+  0.1332317  0.0473123  0.0571102  0.0420405  0.054048   0.3290236]</t>
   </si>
   <si>
     <t>_1</t>
@@ -915,13 +917,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.64900000000000002</v>
+        <v>0.52900000000000003</v>
       </c>
       <c r="C2">
-        <v>0.63500000000000001</v>
+        <v>0.54800000000000004</v>
       </c>
       <c r="D2">
-        <v>0.67500000000000004</v>
+        <v>0.55900000000000005</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -929,13 +931,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.627</v>
+        <v>0.54</v>
       </c>
       <c r="C3">
-        <v>0.63900000000000001</v>
+        <v>0.54300000000000004</v>
       </c>
       <c r="D3">
-        <v>0.68</v>
+        <v>0.54400000000000004</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -943,13 +945,13 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.63800000000000001</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="C4">
-        <v>0.66200000000000003</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="D4">
-        <v>0.66700000000000004</v>
+        <v>0.54800000000000004</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -957,13 +959,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.64100000000000001</v>
+        <v>0.53800000000000003</v>
       </c>
       <c r="C5">
-        <v>0.63900000000000001</v>
+        <v>0.54</v>
       </c>
       <c r="D5">
-        <v>0.65400000000000003</v>
+        <v>0.55100000000000005</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -971,13 +973,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.64300000000000002</v>
+        <v>0.54900000000000004</v>
       </c>
       <c r="C6">
-        <v>0.65</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D6">
-        <v>0.64900000000000002</v>
+        <v>0.55100000000000005</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -985,13 +987,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.627</v>
+        <v>0.52700000000000002</v>
       </c>
       <c r="C7">
-        <v>0.622</v>
+        <v>0.52200000000000002</v>
       </c>
       <c r="D7">
-        <v>0.64200000000000002</v>
+        <v>0.52800000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -999,13 +1001,13 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>0.61</v>
+        <v>0.52</v>
       </c>
       <c r="C8">
-        <v>0.60899999999999999</v>
+        <v>0.54</v>
       </c>
       <c r="D8">
-        <v>0.63100000000000001</v>
+        <v>0.51500000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1013,13 +1015,13 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <v>0.60899999999999999</v>
+        <v>0.52</v>
       </c>
       <c r="C9">
-        <v>0.60199999999999998</v>
+        <v>0.51600000000000001</v>
       </c>
       <c r="D9">
-        <v>0.63900000000000001</v>
+        <v>0.53400000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1027,13 +1029,13 @@
         <v>5</v>
       </c>
       <c r="B10">
-        <v>0.629</v>
+        <v>0.52700000000000002</v>
       </c>
       <c r="C10">
-        <v>0.63400000000000001</v>
+        <v>0.53800000000000003</v>
       </c>
       <c r="D10">
-        <v>0.625</v>
+        <v>0.53800000000000003</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1041,13 +1043,13 @@
         <v>5</v>
       </c>
       <c r="B11">
-        <v>0.623</v>
+        <v>0.51900000000000002</v>
       </c>
       <c r="C11">
-        <v>0.60799999999999998</v>
+        <v>0.52100000000000002</v>
       </c>
       <c r="D11">
-        <v>0.626</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1055,13 +1057,13 @@
         <v>6</v>
       </c>
       <c r="B12">
-        <v>0.64200000000000002</v>
+        <v>0.52900000000000003</v>
       </c>
       <c r="C12">
-        <v>0.63800000000000001</v>
+        <v>0.54700000000000004</v>
       </c>
       <c r="D12">
-        <v>0.63100000000000001</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1069,13 +1071,13 @@
         <v>6</v>
       </c>
       <c r="B13">
-        <v>0.629</v>
+        <v>0.53200000000000003</v>
       </c>
       <c r="C13">
-        <v>0.63300000000000001</v>
+        <v>0.53700000000000003</v>
       </c>
       <c r="D13">
-        <v>0.66100000000000003</v>
+        <v>0.55100000000000005</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1083,13 +1085,13 @@
         <v>6</v>
       </c>
       <c r="B14">
-        <v>0.61399999999999999</v>
+        <v>0.52900000000000003</v>
       </c>
       <c r="C14">
-        <v>0.63200000000000001</v>
+        <v>0.54300000000000004</v>
       </c>
       <c r="D14">
-        <v>0.65400000000000003</v>
+        <v>0.53200000000000003</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1097,13 +1099,13 @@
         <v>6</v>
       </c>
       <c r="B15">
-        <v>0.63200000000000001</v>
+        <v>0.54100000000000004</v>
       </c>
       <c r="C15">
-        <v>0.64300000000000002</v>
+        <v>0.53300000000000003</v>
       </c>
       <c r="D15">
-        <v>0.63200000000000001</v>
+        <v>0.54800000000000004</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1111,13 +1113,13 @@
         <v>6</v>
       </c>
       <c r="B16">
-        <v>0.64700000000000002</v>
+        <v>0.52900000000000003</v>
       </c>
       <c r="C16">
-        <v>0.63900000000000001</v>
+        <v>0.52100000000000002</v>
       </c>
       <c r="D16">
-        <v>0.63800000000000001</v>
+        <v>0.55400000000000005</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1125,13 +1127,13 @@
         <v>7</v>
       </c>
       <c r="B17">
-        <v>0.438</v>
+        <v>0.374</v>
       </c>
       <c r="C17">
-        <v>0.44800000000000001</v>
+        <v>0.37</v>
       </c>
       <c r="D17">
-        <v>0.51600000000000001</v>
+        <v>0.41299999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1139,13 +1141,13 @@
         <v>7</v>
       </c>
       <c r="B18">
-        <v>0.44</v>
+        <v>0.372</v>
       </c>
       <c r="C18">
-        <v>0.44800000000000001</v>
+        <v>0.378</v>
       </c>
       <c r="D18">
-        <v>0.497</v>
+        <v>0.41899999999999998</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1153,13 +1155,13 @@
         <v>7</v>
       </c>
       <c r="B19">
-        <v>0.45100000000000001</v>
+        <v>0.376</v>
       </c>
       <c r="C19">
-        <v>0.45100000000000001</v>
+        <v>0.38400000000000001</v>
       </c>
       <c r="D19">
-        <v>0.49299999999999999</v>
+        <v>0.42099999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1167,13 +1169,13 @@
         <v>7</v>
       </c>
       <c r="B20">
-        <v>0.45500000000000002</v>
+        <v>0.38</v>
       </c>
       <c r="C20">
-        <v>0.45500000000000002</v>
+        <v>0.38500000000000001</v>
       </c>
       <c r="D20">
-        <v>0.498</v>
+        <v>0.41599999999999998</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1181,13 +1183,13 @@
         <v>7</v>
       </c>
       <c r="B21">
-        <v>0.44900000000000001</v>
+        <v>0.371</v>
       </c>
       <c r="C21">
-        <v>0.45700000000000002</v>
+        <v>0.378</v>
       </c>
       <c r="D21">
-        <v>0.504</v>
+        <v>0.42099999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1195,13 +1197,13 @@
         <v>8</v>
       </c>
       <c r="B22">
-        <v>0.55000000000000004</v>
+        <v>0.42399999999999999</v>
       </c>
       <c r="C22">
-        <v>0.56399999999999995</v>
+        <v>0.441</v>
       </c>
       <c r="D22">
-        <v>0.56799999999999995</v>
+        <v>0.45300000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1209,13 +1211,13 @@
         <v>8</v>
       </c>
       <c r="B23">
-        <v>0.54900000000000004</v>
+        <v>0.43099999999999999</v>
       </c>
       <c r="C23">
-        <v>0.55800000000000005</v>
+        <v>0.44900000000000001</v>
       </c>
       <c r="D23">
-        <v>0.54600000000000004</v>
+        <v>0.46100000000000002</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1223,13 +1225,13 @@
         <v>8</v>
       </c>
       <c r="B24">
-        <v>0.51800000000000002</v>
+        <v>0.443</v>
       </c>
       <c r="C24">
-        <v>0.54300000000000004</v>
+        <v>0.45700000000000002</v>
       </c>
       <c r="D24">
-        <v>0.55600000000000005</v>
+        <v>0.46100000000000002</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1237,13 +1239,13 @@
         <v>8</v>
       </c>
       <c r="B25">
-        <v>0.53100000000000003</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="C25">
-        <v>0.54500000000000004</v>
+        <v>0.45200000000000001</v>
       </c>
       <c r="D25">
-        <v>0.55400000000000005</v>
+        <v>0.45600000000000002</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1251,13 +1253,13 @@
         <v>8</v>
       </c>
       <c r="B26">
-        <v>0.53100000000000003</v>
+        <v>0.42299999999999999</v>
       </c>
       <c r="C26">
-        <v>0.55800000000000005</v>
+        <v>0.44800000000000001</v>
       </c>
       <c r="D26">
-        <v>0.56299999999999994</v>
+        <v>0.45200000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1265,13 +1267,13 @@
         <v>9</v>
       </c>
       <c r="B27">
-        <v>0.58099999999999996</v>
+        <v>0.47799999999999998</v>
       </c>
       <c r="C27">
-        <v>0.59199999999999997</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="D27">
-        <v>0.61499999999999999</v>
+        <v>0.50800000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1279,13 +1281,13 @@
         <v>9</v>
       </c>
       <c r="B28">
-        <v>0.56999999999999995</v>
+        <v>0.48899999999999999</v>
       </c>
       <c r="C28">
-        <v>0.58499999999999996</v>
+        <v>0.47899999999999998</v>
       </c>
       <c r="D28">
-        <v>0.61399999999999999</v>
+        <v>0.502</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1293,13 +1295,13 @@
         <v>9</v>
       </c>
       <c r="B29">
-        <v>0.57499999999999996</v>
+        <v>0.47199999999999998</v>
       </c>
       <c r="C29">
-        <v>0.59399999999999997</v>
+        <v>0.46899999999999997</v>
       </c>
       <c r="D29">
-        <v>0.60199999999999998</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1307,13 +1309,13 @@
         <v>9</v>
       </c>
       <c r="B30">
-        <v>0.56799999999999995</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="C30">
-        <v>0.61099999999999999</v>
+        <v>0.48</v>
       </c>
       <c r="D30">
-        <v>0.60899999999999999</v>
+        <v>0.503</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1321,13 +1323,13 @@
         <v>9</v>
       </c>
       <c r="B31">
-        <v>0.58599999999999997</v>
+        <v>0.47099999999999997</v>
       </c>
       <c r="C31">
-        <v>0.59</v>
+        <v>0.49099999999999999</v>
       </c>
       <c r="D31">
-        <v>0.60499999999999998</v>
+        <v>0.49399999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1335,13 +1337,13 @@
         <v>10</v>
       </c>
       <c r="B32">
-        <v>0.55800000000000005</v>
+        <v>0.47299999999999998</v>
       </c>
       <c r="C32">
-        <v>0.58499999999999996</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="D32">
-        <v>0.57399999999999995</v>
+        <v>0.46100000000000002</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1349,13 +1351,13 @@
         <v>10</v>
       </c>
       <c r="B33">
-        <v>0.56399999999999995</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="C33">
-        <v>0.59</v>
+        <v>0.47799999999999998</v>
       </c>
       <c r="D33">
-        <v>0.55900000000000005</v>
+        <v>0.46200000000000002</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1363,13 +1365,13 @@
         <v>10</v>
       </c>
       <c r="B34">
-        <v>0.56599999999999995</v>
+        <v>0.46899999999999997</v>
       </c>
       <c r="C34">
-        <v>0.59599999999999997</v>
+        <v>0.48899999999999999</v>
       </c>
       <c r="D34">
-        <v>0.57799999999999996</v>
+        <v>0.45900000000000002</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1377,13 +1379,13 @@
         <v>10</v>
       </c>
       <c r="B35">
-        <v>0.58299999999999996</v>
+        <v>0.46700000000000003</v>
       </c>
       <c r="C35">
-        <v>0.59099999999999997</v>
+        <v>0.47299999999999998</v>
       </c>
       <c r="D35">
-        <v>0.57799999999999996</v>
+        <v>0.45500000000000002</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1391,13 +1393,13 @@
         <v>10</v>
       </c>
       <c r="B36">
-        <v>0.58399999999999996</v>
+        <v>0.47899999999999998</v>
       </c>
       <c r="C36">
-        <v>0.57699999999999996</v>
+        <v>0.47899999999999998</v>
       </c>
       <c r="D36">
-        <v>0.57699999999999996</v>
+        <v>0.46100000000000002</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1405,13 +1407,13 @@
         <v>11</v>
       </c>
       <c r="B37">
-        <v>0.61899999999999999</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="C37">
-        <v>0.63800000000000001</v>
+        <v>0.51800000000000002</v>
       </c>
       <c r="D37">
-        <v>0.63400000000000001</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1419,13 +1421,13 @@
         <v>11</v>
       </c>
       <c r="B38">
-        <v>0.625</v>
+        <v>0.51</v>
       </c>
       <c r="C38">
-        <v>0.63600000000000001</v>
+        <v>0.51200000000000001</v>
       </c>
       <c r="D38">
-        <v>0.65600000000000003</v>
+        <v>0.53800000000000003</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1433,13 +1435,13 @@
         <v>11</v>
       </c>
       <c r="B39">
-        <v>0.60899999999999999</v>
+        <v>0.51900000000000002</v>
       </c>
       <c r="C39">
-        <v>0.625</v>
+        <v>0.52</v>
       </c>
       <c r="D39">
-        <v>0.622</v>
+        <v>0.53400000000000003</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1447,13 +1449,13 @@
         <v>11</v>
       </c>
       <c r="B40">
-        <v>0.63200000000000001</v>
+        <v>0.496</v>
       </c>
       <c r="C40">
-        <v>0.65800000000000003</v>
+        <v>0.53</v>
       </c>
       <c r="D40">
-        <v>0.64800000000000002</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1461,13 +1463,13 @@
         <v>11</v>
       </c>
       <c r="B41">
-        <v>0.61599999999999999</v>
+        <v>0.51400000000000001</v>
       </c>
       <c r="C41">
-        <v>0.63600000000000001</v>
+        <v>0.52</v>
       </c>
       <c r="D41">
-        <v>0.63600000000000001</v>
+        <v>0.53100000000000003</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1475,13 +1477,13 @@
         <v>12</v>
       </c>
       <c r="B42">
-        <v>0.64600000000000002</v>
+        <v>0.49099999999999999</v>
       </c>
       <c r="C42">
-        <v>0.64</v>
+        <v>0.53200000000000003</v>
       </c>
       <c r="D42">
-        <v>0.68300000000000005</v>
+        <v>0.54800000000000004</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1489,13 +1491,13 @@
         <v>12</v>
       </c>
       <c r="B43">
-        <v>0.624</v>
+        <v>0.501</v>
       </c>
       <c r="C43">
-        <v>0.63800000000000001</v>
+        <v>0.52700000000000002</v>
       </c>
       <c r="D43">
-        <v>0.66800000000000004</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1503,13 +1505,13 @@
         <v>12</v>
       </c>
       <c r="B44">
-        <v>0.622</v>
+        <v>0.50900000000000001</v>
       </c>
       <c r="C44">
-        <v>0.65800000000000003</v>
+        <v>0.52700000000000002</v>
       </c>
       <c r="D44">
-        <v>0.68300000000000005</v>
+        <v>0.55500000000000005</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1517,13 +1519,13 @@
         <v>12</v>
       </c>
       <c r="B45">
-        <v>0.624</v>
+        <v>0.502</v>
       </c>
       <c r="C45">
-        <v>0.63900000000000001</v>
+        <v>0.52300000000000002</v>
       </c>
       <c r="D45">
-        <v>0.68200000000000005</v>
+        <v>0.54700000000000004</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1531,13 +1533,13 @@
         <v>12</v>
       </c>
       <c r="B46">
-        <v>0.627</v>
+        <v>0.496</v>
       </c>
       <c r="C46">
-        <v>0.65200000000000002</v>
+        <v>0.52800000000000002</v>
       </c>
       <c r="D46">
-        <v>0.67400000000000004</v>
+        <v>0.55300000000000005</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1545,13 +1547,13 @@
         <v>13</v>
       </c>
       <c r="B47">
-        <v>0.61899999999999999</v>
+        <v>0.502</v>
       </c>
       <c r="C47">
-        <v>0.65100000000000002</v>
+        <v>0.51600000000000001</v>
       </c>
       <c r="D47">
-        <v>0.67900000000000005</v>
+        <v>0.55400000000000005</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1559,13 +1561,13 @@
         <v>13</v>
       </c>
       <c r="B48">
-        <v>0.61599999999999999</v>
+        <v>0.51100000000000001</v>
       </c>
       <c r="C48">
-        <v>0.65300000000000002</v>
+        <v>0.52</v>
       </c>
       <c r="D48">
-        <v>0.66600000000000004</v>
+        <v>0.55500000000000005</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -1573,13 +1575,13 @@
         <v>13</v>
       </c>
       <c r="B49">
-        <v>0.60599999999999998</v>
+        <v>0.49199999999999999</v>
       </c>
       <c r="C49">
-        <v>0.65200000000000002</v>
+        <v>0.51700000000000002</v>
       </c>
       <c r="D49">
-        <v>0.67200000000000004</v>
+        <v>0.55500000000000005</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -1587,13 +1589,13 @@
         <v>13</v>
       </c>
       <c r="B50">
-        <v>0.61699999999999999</v>
+        <v>0.501</v>
       </c>
       <c r="C50">
-        <v>0.65200000000000002</v>
+        <v>0.50800000000000001</v>
       </c>
       <c r="D50">
-        <v>0.67300000000000004</v>
+        <v>0.55500000000000005</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1601,13 +1603,13 @@
         <v>13</v>
       </c>
       <c r="B51">
-        <v>0.628</v>
+        <v>0.501</v>
       </c>
       <c r="C51">
-        <v>0.65900000000000003</v>
+        <v>0.51300000000000001</v>
       </c>
       <c r="D51">
-        <v>0.65200000000000002</v>
+        <v>0.56100000000000005</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -1615,13 +1617,13 @@
         <v>14</v>
       </c>
       <c r="B52">
-        <v>0.621</v>
+        <v>0.51</v>
       </c>
       <c r="C52">
-        <v>0.625</v>
+        <v>0.52600000000000002</v>
       </c>
       <c r="D52">
-        <v>0.7</v>
+        <v>0.58699999999999997</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -1629,13 +1631,13 @@
         <v>14</v>
       </c>
       <c r="B53">
-        <v>0.62</v>
+        <v>0.50800000000000001</v>
       </c>
       <c r="C53">
-        <v>0.64600000000000002</v>
+        <v>0.53900000000000003</v>
       </c>
       <c r="D53">
-        <v>0.70899999999999996</v>
+        <v>0.57399999999999995</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -1643,13 +1645,13 @@
         <v>14</v>
       </c>
       <c r="B54">
-        <v>0.62</v>
+        <v>0.50700000000000001</v>
       </c>
       <c r="C54">
-        <v>0.63900000000000001</v>
+        <v>0.53700000000000003</v>
       </c>
       <c r="D54">
-        <v>0.69799999999999995</v>
+        <v>0.57899999999999996</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -1657,13 +1659,13 @@
         <v>14</v>
       </c>
       <c r="B55">
-        <v>0.625</v>
+        <v>0.49099999999999999</v>
       </c>
       <c r="C55">
-        <v>0.63</v>
+        <v>0.52800000000000002</v>
       </c>
       <c r="D55">
-        <v>0.70499999999999996</v>
+        <v>0.59399999999999997</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -1671,13 +1673,13 @@
         <v>14</v>
       </c>
       <c r="B56">
-        <v>0.622</v>
+        <v>0.48399999999999999</v>
       </c>
       <c r="C56">
-        <v>0.64800000000000002</v>
+        <v>0.51300000000000001</v>
       </c>
       <c r="D56">
-        <v>0.70799999999999996</v>
+        <v>0.58699999999999997</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -1685,13 +1687,13 @@
         <v>15</v>
       </c>
       <c r="B57">
-        <v>0.55100000000000005</v>
+        <v>0.43099999999999999</v>
       </c>
       <c r="C57">
-        <v>0.57499999999999996</v>
+        <v>0.436</v>
       </c>
       <c r="D57">
-        <v>0.64</v>
+        <v>0.45500000000000002</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -1699,13 +1701,13 @@
         <v>15</v>
       </c>
       <c r="B58">
-        <v>0.56200000000000006</v>
+        <v>0.39800000000000002</v>
       </c>
       <c r="C58">
-        <v>0.55800000000000005</v>
+        <v>0.433</v>
       </c>
       <c r="D58">
-        <v>0.65900000000000003</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -1713,13 +1715,13 @@
         <v>15</v>
       </c>
       <c r="B59">
-        <v>0.56100000000000005</v>
+        <v>0.439</v>
       </c>
       <c r="C59">
-        <v>0.57699999999999996</v>
+        <v>0.44600000000000001</v>
       </c>
       <c r="D59">
-        <v>0.64300000000000002</v>
+        <v>0.47899999999999998</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -1727,13 +1729,13 @@
         <v>15</v>
       </c>
       <c r="B60">
-        <v>0.56499999999999995</v>
+        <v>0.438</v>
       </c>
       <c r="C60">
-        <v>0.56799999999999995</v>
+        <v>0.443</v>
       </c>
       <c r="D60">
-        <v>0.627</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -1741,13 +1743,13 @@
         <v>15</v>
       </c>
       <c r="B61">
-        <v>0.53600000000000003</v>
+        <v>0.40600000000000003</v>
       </c>
       <c r="C61">
-        <v>0.55500000000000005</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="D61">
-        <v>0.63</v>
+        <v>0.49399999999999999</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -1755,13 +1757,13 @@
         <v>16</v>
       </c>
       <c r="B62">
-        <v>0.60299999999999998</v>
+        <v>0.499</v>
       </c>
       <c r="C62">
-        <v>0.63600000000000001</v>
+        <v>0.49399999999999999</v>
       </c>
       <c r="D62">
-        <v>0.66300000000000003</v>
+        <v>0.52300000000000002</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -1769,13 +1771,13 @@
         <v>16</v>
       </c>
       <c r="B63">
-        <v>0.629</v>
+        <v>0.49099999999999999</v>
       </c>
       <c r="C63">
-        <v>0.626</v>
+        <v>0.5</v>
       </c>
       <c r="D63">
-        <v>0.65100000000000002</v>
+        <v>0.51500000000000001</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -1783,13 +1785,13 @@
         <v>16</v>
       </c>
       <c r="B64">
-        <v>0.61599999999999999</v>
+        <v>0.49299999999999999</v>
       </c>
       <c r="C64">
-        <v>0.626</v>
+        <v>0.52</v>
       </c>
       <c r="D64">
-        <v>0.66800000000000004</v>
+        <v>0.53800000000000003</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -1797,13 +1799,13 @@
         <v>16</v>
       </c>
       <c r="B65">
-        <v>0.621</v>
+        <v>0.48</v>
       </c>
       <c r="C65">
-        <v>0.61799999999999999</v>
+        <v>0.50800000000000001</v>
       </c>
       <c r="D65">
-        <v>0.66400000000000003</v>
+        <v>0.54600000000000004</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -1811,13 +1813,13 @@
         <v>16</v>
       </c>
       <c r="B66">
-        <v>0.61899999999999999</v>
+        <v>0.47799999999999998</v>
       </c>
       <c r="C66">
-        <v>0.63200000000000001</v>
+        <v>0.497</v>
       </c>
       <c r="D66">
-        <v>0.65300000000000002</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -1825,13 +1827,13 @@
         <v>17</v>
       </c>
       <c r="B67">
-        <v>0.56100000000000005</v>
+        <v>0.38200000000000001</v>
       </c>
       <c r="C67">
-        <v>0.52200000000000002</v>
+        <v>0.39300000000000002</v>
       </c>
       <c r="D67">
-        <v>0.60399999999999998</v>
+        <v>0.42299999999999999</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -1839,13 +1841,13 @@
         <v>17</v>
       </c>
       <c r="B68">
-        <v>0.54200000000000004</v>
+        <v>0.374</v>
       </c>
       <c r="C68">
-        <v>0.53700000000000003</v>
+        <v>0.40500000000000003</v>
       </c>
       <c r="D68">
-        <v>0.60299999999999998</v>
+        <v>0.43099999999999999</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -1853,13 +1855,13 @@
         <v>17</v>
       </c>
       <c r="B69">
-        <v>0.55100000000000005</v>
+        <v>0.39200000000000002</v>
       </c>
       <c r="C69">
-        <v>0.53900000000000003</v>
+        <v>0.39600000000000002</v>
       </c>
       <c r="D69">
-        <v>0.60399999999999998</v>
+        <v>0.44400000000000001</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -1867,13 +1869,13 @@
         <v>17</v>
       </c>
       <c r="B70">
-        <v>0.54200000000000004</v>
+        <v>0.40100000000000002</v>
       </c>
       <c r="C70">
-        <v>0.54900000000000004</v>
+        <v>0.40500000000000003</v>
       </c>
       <c r="D70">
-        <v>0.60199999999999998</v>
+        <v>0.38500000000000001</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -1881,13 +1883,13 @@
         <v>17</v>
       </c>
       <c r="B71">
-        <v>0.53200000000000003</v>
+        <v>0.4</v>
       </c>
       <c r="C71">
-        <v>0.54300000000000004</v>
+        <v>0.38500000000000001</v>
       </c>
       <c r="D71">
-        <v>0.61399999999999999</v>
+        <v>0.42899999999999999</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -1895,13 +1897,13 @@
         <v>18</v>
       </c>
       <c r="B72">
-        <v>0.49199999999999999</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="C72">
-        <v>0.498</v>
+        <v>0.36</v>
       </c>
       <c r="D72">
-        <v>0.52</v>
+        <v>0.39100000000000001</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -1909,13 +1911,13 @@
         <v>18</v>
       </c>
       <c r="B73">
-        <v>0.47</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="C73">
-        <v>0.495</v>
+        <v>0.36499999999999999</v>
       </c>
       <c r="D73">
-        <v>0.51500000000000001</v>
+        <v>0.35499999999999998</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -1923,13 +1925,13 @@
         <v>18</v>
       </c>
       <c r="B74">
-        <v>0.51600000000000001</v>
+        <v>0.35099999999999998</v>
       </c>
       <c r="C74">
-        <v>0.51</v>
+        <v>0.35199999999999998</v>
       </c>
       <c r="D74">
-        <v>0.51900000000000002</v>
+        <v>0.34100000000000003</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -1937,13 +1939,13 @@
         <v>18</v>
       </c>
       <c r="B75">
-        <v>0.52100000000000002</v>
+        <v>0.35199999999999998</v>
       </c>
       <c r="C75">
-        <v>0.51700000000000002</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="D75">
-        <v>0.48399999999999999</v>
+        <v>0.373</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -1951,13 +1953,13 @@
         <v>18</v>
       </c>
       <c r="B76">
-        <v>0.47099999999999997</v>
+        <v>0.34300000000000003</v>
       </c>
       <c r="C76">
-        <v>0.47799999999999998</v>
+        <v>0.33400000000000002</v>
       </c>
       <c r="D76">
-        <v>0.51300000000000001</v>
+        <v>0.35699999999999998</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -1965,13 +1967,13 @@
         <v>19</v>
       </c>
       <c r="B77">
-        <v>0.45800000000000002</v>
+        <v>0.33700000000000002</v>
       </c>
       <c r="C77">
-        <v>0.45500000000000002</v>
+        <v>0.33700000000000002</v>
       </c>
       <c r="D77">
-        <v>0.52100000000000002</v>
+        <v>0.41699999999999998</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -1979,13 +1981,13 @@
         <v>19</v>
       </c>
       <c r="B78">
-        <v>0.45800000000000002</v>
+        <v>0.35199999999999998</v>
       </c>
       <c r="C78">
-        <v>0.436</v>
+        <v>0.36899999999999999</v>
       </c>
       <c r="D78">
-        <v>0.52100000000000002</v>
+        <v>0.38300000000000001</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -1993,13 +1995,13 @@
         <v>19</v>
       </c>
       <c r="B79">
-        <v>0.42299999999999999</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="C79">
-        <v>0.45500000000000002</v>
+        <v>0.33800000000000002</v>
       </c>
       <c r="D79">
-        <v>0.52400000000000002</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -2007,13 +2009,13 @@
         <v>19</v>
       </c>
       <c r="B80">
-        <v>0.443</v>
+        <v>0.34100000000000003</v>
       </c>
       <c r="C80">
-        <v>0.46500000000000002</v>
+        <v>0.32800000000000001</v>
       </c>
       <c r="D80">
-        <v>0.53300000000000003</v>
+        <v>0.38600000000000001</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -2021,13 +2023,13 @@
         <v>19</v>
       </c>
       <c r="B81">
-        <v>0.46500000000000002</v>
+        <v>0.32600000000000001</v>
       </c>
       <c r="C81">
-        <v>0.45700000000000002</v>
+        <v>0.34200000000000003</v>
       </c>
       <c r="D81">
-        <v>0.52200000000000002</v>
+        <v>0.40400000000000003</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -2035,13 +2037,13 @@
         <v>20</v>
       </c>
       <c r="B82">
-        <v>0.40799999999999997</v>
+        <v>0.30299999999999999</v>
       </c>
       <c r="C82">
-        <v>0.41299999999999998</v>
+        <v>0.316</v>
       </c>
       <c r="D82">
-        <v>0.42199999999999999</v>
+        <v>0.317</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -2049,13 +2051,13 @@
         <v>20</v>
       </c>
       <c r="B83">
-        <v>0.42399999999999999</v>
+        <v>0.30299999999999999</v>
       </c>
       <c r="C83">
-        <v>0.38500000000000001</v>
+        <v>0.311</v>
       </c>
       <c r="D83">
-        <v>0.41099999999999998</v>
+        <v>0.32300000000000001</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -2063,13 +2065,13 @@
         <v>20</v>
       </c>
       <c r="B84">
-        <v>0.41399999999999998</v>
+        <v>0.312</v>
       </c>
       <c r="C84">
-        <v>0.443</v>
+        <v>0.30299999999999999</v>
       </c>
       <c r="D84">
-        <v>0.40699999999999997</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -2077,13 +2079,13 @@
         <v>20</v>
       </c>
       <c r="B85">
-        <v>0.40600000000000003</v>
+        <v>0.308</v>
       </c>
       <c r="C85">
-        <v>0.41199999999999998</v>
+        <v>0.312</v>
       </c>
       <c r="D85">
-        <v>0.40600000000000003</v>
+        <v>0.311</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -2091,13 +2093,13 @@
         <v>20</v>
       </c>
       <c r="B86">
-        <v>0.42199999999999999</v>
+        <v>0.315</v>
       </c>
       <c r="C86">
-        <v>0.438</v>
+        <v>0.311</v>
       </c>
       <c r="D86">
-        <v>0.435</v>
+        <v>0.32900000000000001</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -2105,13 +2107,13 @@
         <v>21</v>
       </c>
       <c r="B87">
-        <v>0.41499999999999998</v>
+        <v>0.36899999999999999</v>
       </c>
       <c r="C87">
-        <v>0.45200000000000001</v>
+        <v>0.35199999999999998</v>
       </c>
       <c r="D87">
-        <v>0.43</v>
+        <v>0.35599999999999998</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -2119,13 +2121,13 @@
         <v>21</v>
       </c>
       <c r="B88">
-        <v>0.45100000000000001</v>
+        <v>0.37</v>
       </c>
       <c r="C88">
-        <v>0.47599999999999998</v>
+        <v>0.373</v>
       </c>
       <c r="D88">
-        <v>0.43099999999999999</v>
+        <v>0.38100000000000001</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -2133,13 +2135,13 @@
         <v>21</v>
       </c>
       <c r="B89">
-        <v>0.443</v>
+        <v>0.34599999999999997</v>
       </c>
       <c r="C89">
-        <v>0.44400000000000001</v>
+        <v>0.36599999999999999</v>
       </c>
       <c r="D89">
-        <v>0.438</v>
+        <v>0.35299999999999998</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -2147,13 +2149,13 @@
         <v>21</v>
       </c>
       <c r="B90">
-        <v>0.48199999999999998</v>
+        <v>0.36699999999999999</v>
       </c>
       <c r="C90">
-        <v>0.45500000000000002</v>
+        <v>0.38900000000000001</v>
       </c>
       <c r="D90">
-        <v>0.44500000000000001</v>
+        <v>0.36799999999999999</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -2161,13 +2163,13 @@
         <v>21</v>
       </c>
       <c r="B91">
-        <v>0.46</v>
+        <v>0.36099999999999999</v>
       </c>
       <c r="C91">
-        <v>0.46600000000000003</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="D91">
-        <v>0.45800000000000002</v>
+        <v>0.34499999999999997</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -2175,13 +2177,13 @@
         <v>22</v>
       </c>
       <c r="B92">
-        <v>0.54600000000000004</v>
+        <v>0.43</v>
       </c>
       <c r="C92">
-        <v>0.52800000000000002</v>
+        <v>0.434</v>
       </c>
       <c r="D92">
-        <v>0.54</v>
+        <v>0.42499999999999999</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -2189,13 +2191,13 @@
         <v>22</v>
       </c>
       <c r="B93">
-        <v>0.53</v>
+        <v>0.40899999999999997</v>
       </c>
       <c r="C93">
-        <v>0.54200000000000004</v>
+        <v>0.434</v>
       </c>
       <c r="D93">
-        <v>0.53500000000000003</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -2203,13 +2205,13 @@
         <v>22</v>
       </c>
       <c r="B94">
-        <v>0.54300000000000004</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="C94">
-        <v>0.54400000000000004</v>
+        <v>0.435</v>
       </c>
       <c r="D94">
-        <v>0.53300000000000003</v>
+        <v>0.439</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -2217,13 +2219,13 @@
         <v>22</v>
       </c>
       <c r="B95">
-        <v>0.54300000000000004</v>
+        <v>0.41599999999999998</v>
       </c>
       <c r="C95">
-        <v>0.53700000000000003</v>
+        <v>0.41899999999999998</v>
       </c>
       <c r="D95">
-        <v>0.53900000000000003</v>
+        <v>0.41899999999999998</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -2231,13 +2233,13 @@
         <v>22</v>
       </c>
       <c r="B96">
-        <v>0.53600000000000003</v>
+        <v>0.42299999999999999</v>
       </c>
       <c r="C96">
-        <v>0.53</v>
+        <v>0.42899999999999999</v>
       </c>
       <c r="D96">
-        <v>0.55300000000000005</v>
+        <v>0.42599999999999999</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -2245,13 +2247,13 @@
         <v>23</v>
       </c>
       <c r="B97">
-        <v>0.621</v>
+        <v>0.52300000000000002</v>
       </c>
       <c r="C97">
-        <v>0.63700000000000001</v>
+        <v>0.52700000000000002</v>
       </c>
       <c r="D97">
-        <v>0.65400000000000003</v>
+        <v>0.54200000000000004</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -2259,13 +2261,13 @@
         <v>23</v>
       </c>
       <c r="B98">
-        <v>0.61799999999999999</v>
+        <v>0.51900000000000002</v>
       </c>
       <c r="C98">
-        <v>0.63600000000000001</v>
+        <v>0.54</v>
       </c>
       <c r="D98">
-        <v>0.65800000000000003</v>
+        <v>0.55700000000000005</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -2273,13 +2275,13 @@
         <v>23</v>
       </c>
       <c r="B99">
-        <v>0.624</v>
+        <v>0.52800000000000002</v>
       </c>
       <c r="C99">
-        <v>0.65600000000000003</v>
+        <v>0.52600000000000002</v>
       </c>
       <c r="D99">
-        <v>0.67200000000000004</v>
+        <v>0.56899999999999995</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -2287,13 +2289,13 @@
         <v>23</v>
       </c>
       <c r="B100">
-        <v>0.64700000000000002</v>
+        <v>0.51600000000000001</v>
       </c>
       <c r="C100">
-        <v>0.65200000000000002</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="D100">
-        <v>0.66900000000000004</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -2301,13 +2303,13 @@
         <v>23</v>
       </c>
       <c r="B101">
-        <v>0.63100000000000001</v>
+        <v>0.53700000000000003</v>
       </c>
       <c r="C101">
-        <v>0.63400000000000001</v>
+        <v>0.51300000000000001</v>
       </c>
       <c r="D101">
-        <v>0.64100000000000001</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -2315,13 +2317,13 @@
         <v>24</v>
       </c>
       <c r="B102">
-        <v>0.65800000000000003</v>
+        <v>0.53900000000000003</v>
       </c>
       <c r="C102">
-        <v>0.622</v>
+        <v>0.53900000000000003</v>
       </c>
       <c r="D102">
-        <v>0.66900000000000004</v>
+        <v>0.55400000000000005</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
@@ -2329,13 +2331,13 @@
         <v>24</v>
       </c>
       <c r="B103">
-        <v>0.65900000000000003</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="C103">
-        <v>0.67300000000000004</v>
+        <v>0.55600000000000005</v>
       </c>
       <c r="D103">
-        <v>0.67500000000000004</v>
+        <v>0.54800000000000004</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -2343,13 +2345,13 @@
         <v>24</v>
       </c>
       <c r="B104">
-        <v>0.66700000000000004</v>
+        <v>0.53800000000000003</v>
       </c>
       <c r="C104">
-        <v>0.67500000000000004</v>
+        <v>0.53300000000000003</v>
       </c>
       <c r="D104">
-        <v>0.67500000000000004</v>
+        <v>0.55800000000000005</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -2357,13 +2359,13 @@
         <v>24</v>
       </c>
       <c r="B105">
-        <v>0.66600000000000004</v>
+        <v>0.52800000000000002</v>
       </c>
       <c r="C105">
-        <v>0.66900000000000004</v>
+        <v>0.53500000000000003</v>
       </c>
       <c r="D105">
-        <v>0.66700000000000004</v>
+        <v>0.55500000000000005</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -2371,13 +2373,13 @@
         <v>24</v>
       </c>
       <c r="B106">
-        <v>0.65200000000000002</v>
+        <v>0.52</v>
       </c>
       <c r="C106">
-        <v>0.66100000000000003</v>
+        <v>0.54700000000000004</v>
       </c>
       <c r="D106">
-        <v>0.68100000000000005</v>
+        <v>0.55200000000000005</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -2385,13 +2387,13 @@
         <v>25</v>
       </c>
       <c r="B107">
-        <v>0.63200000000000001</v>
+        <v>0.52800000000000002</v>
       </c>
       <c r="C107">
-        <v>0.623</v>
+        <v>0.53700000000000003</v>
       </c>
       <c r="D107">
-        <v>0.63100000000000001</v>
+        <v>0.53300000000000003</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -2399,13 +2401,13 @@
         <v>25</v>
       </c>
       <c r="B108">
-        <v>0.60499999999999998</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="C108">
-        <v>0.63200000000000001</v>
+        <v>0.52600000000000002</v>
       </c>
       <c r="D108">
-        <v>0.65100000000000002</v>
+        <v>0.53300000000000003</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -2413,13 +2415,13 @@
         <v>25</v>
       </c>
       <c r="B109">
-        <v>0.61499999999999999</v>
+        <v>0.52900000000000003</v>
       </c>
       <c r="C109">
-        <v>0.63200000000000001</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="D109">
-        <v>0.64500000000000002</v>
+        <v>0.53400000000000003</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
@@ -2427,13 +2429,13 @@
         <v>25</v>
       </c>
       <c r="B110">
-        <v>0.63</v>
+        <v>0.52800000000000002</v>
       </c>
       <c r="C110">
-        <v>0.622</v>
+        <v>0.52600000000000002</v>
       </c>
       <c r="D110">
-        <v>0.65100000000000002</v>
+        <v>0.53800000000000003</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
@@ -2441,13 +2443,13 @@
         <v>25</v>
       </c>
       <c r="B111">
-        <v>0.63200000000000001</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="C111">
-        <v>0.64500000000000002</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="D111">
-        <v>0.66800000000000004</v>
+        <v>0.54300000000000004</v>
       </c>
     </row>
   </sheetData>
@@ -2682,8 +2684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D331"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A324" workbookViewId="0">
-      <selection sqref="A1:D331"/>
+    <sheetView tabSelected="1" topLeftCell="A300" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2710,7 +2712,7 @@
         <v>100</v>
       </c>
       <c r="C2">
-        <v>0.64900000000000002</v>
+        <v>0.52900000000000003</v>
       </c>
       <c r="D2" t="s">
         <v>80</v>
@@ -2724,7 +2726,7 @@
         <v>75</v>
       </c>
       <c r="C3">
-        <v>0.63500000000000001</v>
+        <v>0.54800000000000004</v>
       </c>
       <c r="D3" t="s">
         <v>80</v>
@@ -2738,7 +2740,7 @@
         <v>50</v>
       </c>
       <c r="C4">
-        <v>0.67500000000000004</v>
+        <v>0.55900000000000005</v>
       </c>
       <c r="D4" t="s">
         <v>80</v>
@@ -2752,7 +2754,7 @@
         <v>100</v>
       </c>
       <c r="C5">
-        <v>0.627</v>
+        <v>0.54</v>
       </c>
       <c r="D5" t="s">
         <v>80</v>
@@ -2766,7 +2768,7 @@
         <v>75</v>
       </c>
       <c r="C6">
-        <v>0.63900000000000001</v>
+        <v>0.54300000000000004</v>
       </c>
       <c r="D6" t="s">
         <v>80</v>
@@ -2780,7 +2782,7 @@
         <v>50</v>
       </c>
       <c r="C7">
-        <v>0.68</v>
+        <v>0.54400000000000004</v>
       </c>
       <c r="D7" t="s">
         <v>80</v>
@@ -2794,7 +2796,7 @@
         <v>100</v>
       </c>
       <c r="C8">
-        <v>0.63800000000000001</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="D8" t="s">
         <v>80</v>
@@ -2808,7 +2810,7 @@
         <v>75</v>
       </c>
       <c r="C9">
-        <v>0.66200000000000003</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="D9" t="s">
         <v>80</v>
@@ -2822,7 +2824,7 @@
         <v>50</v>
       </c>
       <c r="C10">
-        <v>0.66700000000000004</v>
+        <v>0.54800000000000004</v>
       </c>
       <c r="D10" t="s">
         <v>80</v>
@@ -2836,7 +2838,7 @@
         <v>100</v>
       </c>
       <c r="C11">
-        <v>0.64100000000000001</v>
+        <v>0.53800000000000003</v>
       </c>
       <c r="D11" t="s">
         <v>80</v>
@@ -2850,7 +2852,7 @@
         <v>75</v>
       </c>
       <c r="C12">
-        <v>0.63900000000000001</v>
+        <v>0.54</v>
       </c>
       <c r="D12" t="s">
         <v>80</v>
@@ -2864,7 +2866,7 @@
         <v>50</v>
       </c>
       <c r="C13">
-        <v>0.65400000000000003</v>
+        <v>0.55100000000000005</v>
       </c>
       <c r="D13" t="s">
         <v>80</v>
@@ -2878,7 +2880,7 @@
         <v>100</v>
       </c>
       <c r="C14">
-        <v>0.64300000000000002</v>
+        <v>0.54900000000000004</v>
       </c>
       <c r="D14" t="s">
         <v>80</v>
@@ -2892,7 +2894,7 @@
         <v>75</v>
       </c>
       <c r="C15">
-        <v>0.65</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D15" t="s">
         <v>80</v>
@@ -2906,7 +2908,7 @@
         <v>50</v>
       </c>
       <c r="C16">
-        <v>0.64900000000000002</v>
+        <v>0.55100000000000005</v>
       </c>
       <c r="D16" t="s">
         <v>80</v>
@@ -2920,7 +2922,7 @@
         <v>100</v>
       </c>
       <c r="C17">
-        <v>0.627</v>
+        <v>0.52700000000000002</v>
       </c>
       <c r="D17" t="s">
         <v>80</v>
@@ -2934,7 +2936,7 @@
         <v>75</v>
       </c>
       <c r="C18">
-        <v>0.622</v>
+        <v>0.52200000000000002</v>
       </c>
       <c r="D18" t="s">
         <v>80</v>
@@ -2948,7 +2950,7 @@
         <v>50</v>
       </c>
       <c r="C19">
-        <v>0.64200000000000002</v>
+        <v>0.52800000000000002</v>
       </c>
       <c r="D19" t="s">
         <v>80</v>
@@ -2962,7 +2964,7 @@
         <v>100</v>
       </c>
       <c r="C20">
-        <v>0.61</v>
+        <v>0.52</v>
       </c>
       <c r="D20" t="s">
         <v>80</v>
@@ -2976,7 +2978,7 @@
         <v>75</v>
       </c>
       <c r="C21">
-        <v>0.60899999999999999</v>
+        <v>0.54</v>
       </c>
       <c r="D21" t="s">
         <v>80</v>
@@ -2990,7 +2992,7 @@
         <v>50</v>
       </c>
       <c r="C22">
-        <v>0.63100000000000001</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="D22" t="s">
         <v>80</v>
@@ -3004,7 +3006,7 @@
         <v>100</v>
       </c>
       <c r="C23">
-        <v>0.60899999999999999</v>
+        <v>0.52</v>
       </c>
       <c r="D23" t="s">
         <v>80</v>
@@ -3018,7 +3020,7 @@
         <v>75</v>
       </c>
       <c r="C24">
-        <v>0.60199999999999998</v>
+        <v>0.51600000000000001</v>
       </c>
       <c r="D24" t="s">
         <v>80</v>
@@ -3032,7 +3034,7 @@
         <v>50</v>
       </c>
       <c r="C25">
-        <v>0.63900000000000001</v>
+        <v>0.53400000000000003</v>
       </c>
       <c r="D25" t="s">
         <v>80</v>
@@ -3046,7 +3048,7 @@
         <v>100</v>
       </c>
       <c r="C26">
-        <v>0.629</v>
+        <v>0.52700000000000002</v>
       </c>
       <c r="D26" t="s">
         <v>80</v>
@@ -3060,7 +3062,7 @@
         <v>75</v>
       </c>
       <c r="C27">
-        <v>0.63400000000000001</v>
+        <v>0.53800000000000003</v>
       </c>
       <c r="D27" t="s">
         <v>80</v>
@@ -3074,7 +3076,7 @@
         <v>50</v>
       </c>
       <c r="C28">
-        <v>0.625</v>
+        <v>0.53800000000000003</v>
       </c>
       <c r="D28" t="s">
         <v>80</v>
@@ -3088,7 +3090,7 @@
         <v>100</v>
       </c>
       <c r="C29">
-        <v>0.623</v>
+        <v>0.51900000000000002</v>
       </c>
       <c r="D29" t="s">
         <v>80</v>
@@ -3102,7 +3104,7 @@
         <v>75</v>
       </c>
       <c r="C30">
-        <v>0.60799999999999998</v>
+        <v>0.52100000000000002</v>
       </c>
       <c r="D30" t="s">
         <v>80</v>
@@ -3116,7 +3118,7 @@
         <v>50</v>
       </c>
       <c r="C31">
-        <v>0.626</v>
+        <v>0.52</v>
       </c>
       <c r="D31" t="s">
         <v>80</v>
@@ -3130,7 +3132,7 @@
         <v>100</v>
       </c>
       <c r="C32">
-        <v>0.64200000000000002</v>
+        <v>0.52900000000000003</v>
       </c>
       <c r="D32" t="s">
         <v>80</v>
@@ -3144,7 +3146,7 @@
         <v>75</v>
       </c>
       <c r="C33">
-        <v>0.63800000000000001</v>
+        <v>0.54700000000000004</v>
       </c>
       <c r="D33" t="s">
         <v>80</v>
@@ -3158,7 +3160,7 @@
         <v>50</v>
       </c>
       <c r="C34">
-        <v>0.63100000000000001</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D34" t="s">
         <v>80</v>
@@ -3172,7 +3174,7 @@
         <v>100</v>
       </c>
       <c r="C35">
-        <v>0.629</v>
+        <v>0.53200000000000003</v>
       </c>
       <c r="D35" t="s">
         <v>80</v>
@@ -3186,7 +3188,7 @@
         <v>75</v>
       </c>
       <c r="C36">
-        <v>0.63300000000000001</v>
+        <v>0.53700000000000003</v>
       </c>
       <c r="D36" t="s">
         <v>80</v>
@@ -3200,7 +3202,7 @@
         <v>50</v>
       </c>
       <c r="C37">
-        <v>0.66100000000000003</v>
+        <v>0.55100000000000005</v>
       </c>
       <c r="D37" t="s">
         <v>80</v>
@@ -3214,7 +3216,7 @@
         <v>100</v>
       </c>
       <c r="C38">
-        <v>0.61399999999999999</v>
+        <v>0.52900000000000003</v>
       </c>
       <c r="D38" t="s">
         <v>80</v>
@@ -3228,7 +3230,7 @@
         <v>75</v>
       </c>
       <c r="C39">
-        <v>0.63200000000000001</v>
+        <v>0.54300000000000004</v>
       </c>
       <c r="D39" t="s">
         <v>80</v>
@@ -3242,7 +3244,7 @@
         <v>50</v>
       </c>
       <c r="C40">
-        <v>0.65400000000000003</v>
+        <v>0.53200000000000003</v>
       </c>
       <c r="D40" t="s">
         <v>80</v>
@@ -3256,7 +3258,7 @@
         <v>100</v>
       </c>
       <c r="C41">
-        <v>0.63200000000000001</v>
+        <v>0.54100000000000004</v>
       </c>
       <c r="D41" t="s">
         <v>80</v>
@@ -3270,7 +3272,7 @@
         <v>75</v>
       </c>
       <c r="C42">
-        <v>0.64300000000000002</v>
+        <v>0.53300000000000003</v>
       </c>
       <c r="D42" t="s">
         <v>80</v>
@@ -3284,7 +3286,7 @@
         <v>50</v>
       </c>
       <c r="C43">
-        <v>0.63200000000000001</v>
+        <v>0.54800000000000004</v>
       </c>
       <c r="D43" t="s">
         <v>80</v>
@@ -3298,7 +3300,7 @@
         <v>100</v>
       </c>
       <c r="C44">
-        <v>0.64700000000000002</v>
+        <v>0.52900000000000003</v>
       </c>
       <c r="D44" t="s">
         <v>80</v>
@@ -3312,7 +3314,7 @@
         <v>75</v>
       </c>
       <c r="C45">
-        <v>0.63900000000000001</v>
+        <v>0.52100000000000002</v>
       </c>
       <c r="D45" t="s">
         <v>80</v>
@@ -3326,7 +3328,7 @@
         <v>50</v>
       </c>
       <c r="C46">
-        <v>0.63800000000000001</v>
+        <v>0.55400000000000005</v>
       </c>
       <c r="D46" t="s">
         <v>80</v>
@@ -3340,7 +3342,7 @@
         <v>100</v>
       </c>
       <c r="C47">
-        <v>0.438</v>
+        <v>0.374</v>
       </c>
       <c r="D47" t="s">
         <v>80</v>
@@ -3354,7 +3356,7 @@
         <v>75</v>
       </c>
       <c r="C48">
-        <v>0.44800000000000001</v>
+        <v>0.37</v>
       </c>
       <c r="D48" t="s">
         <v>80</v>
@@ -3368,7 +3370,7 @@
         <v>50</v>
       </c>
       <c r="C49">
-        <v>0.51600000000000001</v>
+        <v>0.41299999999999998</v>
       </c>
       <c r="D49" t="s">
         <v>80</v>
@@ -3382,7 +3384,7 @@
         <v>100</v>
       </c>
       <c r="C50">
-        <v>0.44</v>
+        <v>0.372</v>
       </c>
       <c r="D50" t="s">
         <v>80</v>
@@ -3396,7 +3398,7 @@
         <v>75</v>
       </c>
       <c r="C51">
-        <v>0.44800000000000001</v>
+        <v>0.378</v>
       </c>
       <c r="D51" t="s">
         <v>80</v>
@@ -3410,7 +3412,7 @@
         <v>50</v>
       </c>
       <c r="C52">
-        <v>0.497</v>
+        <v>0.41899999999999998</v>
       </c>
       <c r="D52" t="s">
         <v>80</v>
@@ -3424,7 +3426,7 @@
         <v>100</v>
       </c>
       <c r="C53">
-        <v>0.45100000000000001</v>
+        <v>0.376</v>
       </c>
       <c r="D53" t="s">
         <v>80</v>
@@ -3438,7 +3440,7 @@
         <v>75</v>
       </c>
       <c r="C54">
-        <v>0.45100000000000001</v>
+        <v>0.38400000000000001</v>
       </c>
       <c r="D54" t="s">
         <v>80</v>
@@ -3452,7 +3454,7 @@
         <v>50</v>
       </c>
       <c r="C55">
-        <v>0.49299999999999999</v>
+        <v>0.42099999999999999</v>
       </c>
       <c r="D55" t="s">
         <v>80</v>
@@ -3466,7 +3468,7 @@
         <v>100</v>
       </c>
       <c r="C56">
-        <v>0.45500000000000002</v>
+        <v>0.38</v>
       </c>
       <c r="D56" t="s">
         <v>80</v>
@@ -3480,7 +3482,7 @@
         <v>75</v>
       </c>
       <c r="C57">
-        <v>0.45500000000000002</v>
+        <v>0.38500000000000001</v>
       </c>
       <c r="D57" t="s">
         <v>80</v>
@@ -3494,7 +3496,7 @@
         <v>50</v>
       </c>
       <c r="C58">
-        <v>0.498</v>
+        <v>0.41599999999999998</v>
       </c>
       <c r="D58" t="s">
         <v>80</v>
@@ -3508,7 +3510,7 @@
         <v>100</v>
       </c>
       <c r="C59">
-        <v>0.44900000000000001</v>
+        <v>0.371</v>
       </c>
       <c r="D59" t="s">
         <v>80</v>
@@ -3522,7 +3524,7 @@
         <v>75</v>
       </c>
       <c r="C60">
-        <v>0.45700000000000002</v>
+        <v>0.378</v>
       </c>
       <c r="D60" t="s">
         <v>80</v>
@@ -3536,7 +3538,7 @@
         <v>50</v>
       </c>
       <c r="C61">
-        <v>0.504</v>
+        <v>0.42099999999999999</v>
       </c>
       <c r="D61" t="s">
         <v>80</v>
@@ -3550,7 +3552,7 @@
         <v>100</v>
       </c>
       <c r="C62">
-        <v>0.55000000000000004</v>
+        <v>0.42399999999999999</v>
       </c>
       <c r="D62" t="s">
         <v>80</v>
@@ -3564,7 +3566,7 @@
         <v>75</v>
       </c>
       <c r="C63">
-        <v>0.56399999999999995</v>
+        <v>0.441</v>
       </c>
       <c r="D63" t="s">
         <v>80</v>
@@ -3578,7 +3580,7 @@
         <v>50</v>
       </c>
       <c r="C64">
-        <v>0.56799999999999995</v>
+        <v>0.45300000000000001</v>
       </c>
       <c r="D64" t="s">
         <v>80</v>
@@ -3592,7 +3594,7 @@
         <v>100</v>
       </c>
       <c r="C65">
-        <v>0.54900000000000004</v>
+        <v>0.43099999999999999</v>
       </c>
       <c r="D65" t="s">
         <v>80</v>
@@ -3606,7 +3608,7 @@
         <v>75</v>
       </c>
       <c r="C66">
-        <v>0.55800000000000005</v>
+        <v>0.44900000000000001</v>
       </c>
       <c r="D66" t="s">
         <v>80</v>
@@ -3620,7 +3622,7 @@
         <v>50</v>
       </c>
       <c r="C67">
-        <v>0.54600000000000004</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="D67" t="s">
         <v>80</v>
@@ -3634,7 +3636,7 @@
         <v>100</v>
       </c>
       <c r="C68">
-        <v>0.51800000000000002</v>
+        <v>0.443</v>
       </c>
       <c r="D68" t="s">
         <v>80</v>
@@ -3648,7 +3650,7 @@
         <v>75</v>
       </c>
       <c r="C69">
-        <v>0.54300000000000004</v>
+        <v>0.45700000000000002</v>
       </c>
       <c r="D69" t="s">
         <v>80</v>
@@ -3662,7 +3664,7 @@
         <v>50</v>
       </c>
       <c r="C70">
-        <v>0.55600000000000005</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="D70" t="s">
         <v>80</v>
@@ -3676,7 +3678,7 @@
         <v>100</v>
       </c>
       <c r="C71">
-        <v>0.53100000000000003</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="D71" t="s">
         <v>80</v>
@@ -3690,7 +3692,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>0.54500000000000004</v>
+        <v>0.45200000000000001</v>
       </c>
       <c r="D72" t="s">
         <v>80</v>
@@ -3704,7 +3706,7 @@
         <v>50</v>
       </c>
       <c r="C73">
-        <v>0.55400000000000005</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="D73" t="s">
         <v>80</v>
@@ -3718,7 +3720,7 @@
         <v>100</v>
       </c>
       <c r="C74">
-        <v>0.53100000000000003</v>
+        <v>0.42299999999999999</v>
       </c>
       <c r="D74" t="s">
         <v>80</v>
@@ -3732,7 +3734,7 @@
         <v>75</v>
       </c>
       <c r="C75">
-        <v>0.55800000000000005</v>
+        <v>0.44800000000000001</v>
       </c>
       <c r="D75" t="s">
         <v>80</v>
@@ -3746,7 +3748,7 @@
         <v>50</v>
       </c>
       <c r="C76">
-        <v>0.56299999999999994</v>
+        <v>0.45200000000000001</v>
       </c>
       <c r="D76" t="s">
         <v>80</v>
@@ -3760,7 +3762,7 @@
         <v>100</v>
       </c>
       <c r="C77">
-        <v>0.58099999999999996</v>
+        <v>0.47799999999999998</v>
       </c>
       <c r="D77" t="s">
         <v>80</v>
@@ -3774,7 +3776,7 @@
         <v>75</v>
       </c>
       <c r="C78">
-        <v>0.59199999999999997</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="D78" t="s">
         <v>80</v>
@@ -3788,7 +3790,7 @@
         <v>50</v>
       </c>
       <c r="C79">
-        <v>0.61499999999999999</v>
+        <v>0.50800000000000001</v>
       </c>
       <c r="D79" t="s">
         <v>80</v>
@@ -3802,7 +3804,7 @@
         <v>100</v>
       </c>
       <c r="C80">
-        <v>0.56999999999999995</v>
+        <v>0.48899999999999999</v>
       </c>
       <c r="D80" t="s">
         <v>80</v>
@@ -3816,7 +3818,7 @@
         <v>75</v>
       </c>
       <c r="C81">
-        <v>0.58499999999999996</v>
+        <v>0.47899999999999998</v>
       </c>
       <c r="D81" t="s">
         <v>80</v>
@@ -3830,7 +3832,7 @@
         <v>50</v>
       </c>
       <c r="C82">
-        <v>0.61399999999999999</v>
+        <v>0.502</v>
       </c>
       <c r="D82" t="s">
         <v>80</v>
@@ -3844,7 +3846,7 @@
         <v>100</v>
       </c>
       <c r="C83">
-        <v>0.57499999999999996</v>
+        <v>0.47199999999999998</v>
       </c>
       <c r="D83" t="s">
         <v>80</v>
@@ -3858,7 +3860,7 @@
         <v>75</v>
       </c>
       <c r="C84">
-        <v>0.59399999999999997</v>
+        <v>0.46899999999999997</v>
       </c>
       <c r="D84" t="s">
         <v>80</v>
@@ -3872,7 +3874,7 @@
         <v>50</v>
       </c>
       <c r="C85">
-        <v>0.60199999999999998</v>
+        <v>0.51</v>
       </c>
       <c r="D85" t="s">
         <v>80</v>
@@ -3886,7 +3888,7 @@
         <v>100</v>
       </c>
       <c r="C86">
-        <v>0.56799999999999995</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="D86" t="s">
         <v>80</v>
@@ -3900,7 +3902,7 @@
         <v>75</v>
       </c>
       <c r="C87">
-        <v>0.61099999999999999</v>
+        <v>0.48</v>
       </c>
       <c r="D87" t="s">
         <v>80</v>
@@ -3914,7 +3916,7 @@
         <v>50</v>
       </c>
       <c r="C88">
-        <v>0.60899999999999999</v>
+        <v>0.503</v>
       </c>
       <c r="D88" t="s">
         <v>80</v>
@@ -3928,7 +3930,7 @@
         <v>100</v>
       </c>
       <c r="C89">
-        <v>0.58599999999999997</v>
+        <v>0.47099999999999997</v>
       </c>
       <c r="D89" t="s">
         <v>80</v>
@@ -3942,7 +3944,7 @@
         <v>75</v>
       </c>
       <c r="C90">
-        <v>0.59</v>
+        <v>0.49099999999999999</v>
       </c>
       <c r="D90" t="s">
         <v>80</v>
@@ -3956,7 +3958,7 @@
         <v>50</v>
       </c>
       <c r="C91">
-        <v>0.60499999999999998</v>
+        <v>0.49399999999999999</v>
       </c>
       <c r="D91" t="s">
         <v>80</v>
@@ -3970,7 +3972,7 @@
         <v>100</v>
       </c>
       <c r="C92">
-        <v>0.55800000000000005</v>
+        <v>0.47299999999999998</v>
       </c>
       <c r="D92" t="s">
         <v>80</v>
@@ -3984,7 +3986,7 @@
         <v>75</v>
       </c>
       <c r="C93">
-        <v>0.58499999999999996</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="D93" t="s">
         <v>80</v>
@@ -3998,7 +4000,7 @@
         <v>50</v>
       </c>
       <c r="C94">
-        <v>0.57399999999999995</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="D94" t="s">
         <v>80</v>
@@ -4012,7 +4014,7 @@
         <v>100</v>
       </c>
       <c r="C95">
-        <v>0.56399999999999995</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="D95" t="s">
         <v>80</v>
@@ -4026,7 +4028,7 @@
         <v>75</v>
       </c>
       <c r="C96">
-        <v>0.59</v>
+        <v>0.47799999999999998</v>
       </c>
       <c r="D96" t="s">
         <v>80</v>
@@ -4040,7 +4042,7 @@
         <v>50</v>
       </c>
       <c r="C97">
-        <v>0.55900000000000005</v>
+        <v>0.46200000000000002</v>
       </c>
       <c r="D97" t="s">
         <v>80</v>
@@ -4054,7 +4056,7 @@
         <v>100</v>
       </c>
       <c r="C98">
-        <v>0.56599999999999995</v>
+        <v>0.46899999999999997</v>
       </c>
       <c r="D98" t="s">
         <v>80</v>
@@ -4068,7 +4070,7 @@
         <v>75</v>
       </c>
       <c r="C99">
-        <v>0.59599999999999997</v>
+        <v>0.48899999999999999</v>
       </c>
       <c r="D99" t="s">
         <v>80</v>
@@ -4082,7 +4084,7 @@
         <v>50</v>
       </c>
       <c r="C100">
-        <v>0.57799999999999996</v>
+        <v>0.45900000000000002</v>
       </c>
       <c r="D100" t="s">
         <v>80</v>
@@ -4096,7 +4098,7 @@
         <v>100</v>
       </c>
       <c r="C101">
-        <v>0.58299999999999996</v>
+        <v>0.46700000000000003</v>
       </c>
       <c r="D101" t="s">
         <v>80</v>
@@ -4110,7 +4112,7 @@
         <v>75</v>
       </c>
       <c r="C102">
-        <v>0.59099999999999997</v>
+        <v>0.47299999999999998</v>
       </c>
       <c r="D102" t="s">
         <v>80</v>
@@ -4124,7 +4126,7 @@
         <v>50</v>
       </c>
       <c r="C103">
-        <v>0.57799999999999996</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="D103" t="s">
         <v>80</v>
@@ -4138,7 +4140,7 @@
         <v>100</v>
       </c>
       <c r="C104">
-        <v>0.58399999999999996</v>
+        <v>0.47899999999999998</v>
       </c>
       <c r="D104" t="s">
         <v>80</v>
@@ -4152,7 +4154,7 @@
         <v>75</v>
       </c>
       <c r="C105">
-        <v>0.57699999999999996</v>
+        <v>0.47899999999999998</v>
       </c>
       <c r="D105" t="s">
         <v>80</v>
@@ -4166,7 +4168,7 @@
         <v>50</v>
       </c>
       <c r="C106">
-        <v>0.57699999999999996</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="D106" t="s">
         <v>80</v>
@@ -4180,7 +4182,7 @@
         <v>100</v>
       </c>
       <c r="C107">
-        <v>0.61899999999999999</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="D107" t="s">
         <v>80</v>
@@ -4194,7 +4196,7 @@
         <v>75</v>
       </c>
       <c r="C108">
-        <v>0.63800000000000001</v>
+        <v>0.51800000000000002</v>
       </c>
       <c r="D108" t="s">
         <v>80</v>
@@ -4208,7 +4210,7 @@
         <v>50</v>
       </c>
       <c r="C109">
-        <v>0.63400000000000001</v>
+        <v>0.52</v>
       </c>
       <c r="D109" t="s">
         <v>80</v>
@@ -4222,7 +4224,7 @@
         <v>100</v>
       </c>
       <c r="C110">
-        <v>0.625</v>
+        <v>0.51</v>
       </c>
       <c r="D110" t="s">
         <v>80</v>
@@ -4236,7 +4238,7 @@
         <v>75</v>
       </c>
       <c r="C111">
-        <v>0.63600000000000001</v>
+        <v>0.51200000000000001</v>
       </c>
       <c r="D111" t="s">
         <v>80</v>
@@ -4250,7 +4252,7 @@
         <v>50</v>
       </c>
       <c r="C112">
-        <v>0.65600000000000003</v>
+        <v>0.53800000000000003</v>
       </c>
       <c r="D112" t="s">
         <v>80</v>
@@ -4264,7 +4266,7 @@
         <v>100</v>
       </c>
       <c r="C113">
-        <v>0.60899999999999999</v>
+        <v>0.51900000000000002</v>
       </c>
       <c r="D113" t="s">
         <v>80</v>
@@ -4278,7 +4280,7 @@
         <v>75</v>
       </c>
       <c r="C114">
-        <v>0.625</v>
+        <v>0.52</v>
       </c>
       <c r="D114" t="s">
         <v>80</v>
@@ -4292,7 +4294,7 @@
         <v>50</v>
       </c>
       <c r="C115">
-        <v>0.622</v>
+        <v>0.53400000000000003</v>
       </c>
       <c r="D115" t="s">
         <v>80</v>
@@ -4306,7 +4308,7 @@
         <v>100</v>
       </c>
       <c r="C116">
-        <v>0.63200000000000001</v>
+        <v>0.496</v>
       </c>
       <c r="D116" t="s">
         <v>80</v>
@@ -4320,7 +4322,7 @@
         <v>75</v>
       </c>
       <c r="C117">
-        <v>0.65800000000000003</v>
+        <v>0.53</v>
       </c>
       <c r="D117" t="s">
         <v>80</v>
@@ -4334,7 +4336,7 @@
         <v>50</v>
       </c>
       <c r="C118">
-        <v>0.64800000000000002</v>
+        <v>0.54</v>
       </c>
       <c r="D118" t="s">
         <v>80</v>
@@ -4348,7 +4350,7 @@
         <v>100</v>
       </c>
       <c r="C119">
-        <v>0.61599999999999999</v>
+        <v>0.51400000000000001</v>
       </c>
       <c r="D119" t="s">
         <v>80</v>
@@ -4362,7 +4364,7 @@
         <v>75</v>
       </c>
       <c r="C120">
-        <v>0.63600000000000001</v>
+        <v>0.52</v>
       </c>
       <c r="D120" t="s">
         <v>80</v>
@@ -4376,7 +4378,7 @@
         <v>50</v>
       </c>
       <c r="C121">
-        <v>0.63600000000000001</v>
+        <v>0.53100000000000003</v>
       </c>
       <c r="D121" t="s">
         <v>80</v>
@@ -4390,7 +4392,7 @@
         <v>100</v>
       </c>
       <c r="C122">
-        <v>0.64600000000000002</v>
+        <v>0.49099999999999999</v>
       </c>
       <c r="D122" t="s">
         <v>80</v>
@@ -4404,7 +4406,7 @@
         <v>75</v>
       </c>
       <c r="C123">
-        <v>0.64</v>
+        <v>0.53200000000000003</v>
       </c>
       <c r="D123" t="s">
         <v>80</v>
@@ -4418,7 +4420,7 @@
         <v>50</v>
       </c>
       <c r="C124">
-        <v>0.68300000000000005</v>
+        <v>0.54800000000000004</v>
       </c>
       <c r="D124" t="s">
         <v>80</v>
@@ -4432,7 +4434,7 @@
         <v>100</v>
       </c>
       <c r="C125">
-        <v>0.624</v>
+        <v>0.501</v>
       </c>
       <c r="D125" t="s">
         <v>80</v>
@@ -4446,7 +4448,7 @@
         <v>75</v>
       </c>
       <c r="C126">
-        <v>0.63800000000000001</v>
+        <v>0.52700000000000002</v>
       </c>
       <c r="D126" t="s">
         <v>80</v>
@@ -4460,7 +4462,7 @@
         <v>50</v>
       </c>
       <c r="C127">
-        <v>0.66800000000000004</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D127" t="s">
         <v>80</v>
@@ -4474,7 +4476,7 @@
         <v>100</v>
       </c>
       <c r="C128">
-        <v>0.622</v>
+        <v>0.50900000000000001</v>
       </c>
       <c r="D128" t="s">
         <v>80</v>
@@ -4488,7 +4490,7 @@
         <v>75</v>
       </c>
       <c r="C129">
-        <v>0.65800000000000003</v>
+        <v>0.52700000000000002</v>
       </c>
       <c r="D129" t="s">
         <v>80</v>
@@ -4502,7 +4504,7 @@
         <v>50</v>
       </c>
       <c r="C130">
-        <v>0.68300000000000005</v>
+        <v>0.55500000000000005</v>
       </c>
       <c r="D130" t="s">
         <v>80</v>
@@ -4516,7 +4518,7 @@
         <v>100</v>
       </c>
       <c r="C131">
-        <v>0.624</v>
+        <v>0.502</v>
       </c>
       <c r="D131" t="s">
         <v>80</v>
@@ -4530,7 +4532,7 @@
         <v>75</v>
       </c>
       <c r="C132">
-        <v>0.63900000000000001</v>
+        <v>0.52300000000000002</v>
       </c>
       <c r="D132" t="s">
         <v>80</v>
@@ -4544,7 +4546,7 @@
         <v>50</v>
       </c>
       <c r="C133">
-        <v>0.68200000000000005</v>
+        <v>0.54700000000000004</v>
       </c>
       <c r="D133" t="s">
         <v>80</v>
@@ -4558,7 +4560,7 @@
         <v>100</v>
       </c>
       <c r="C134">
-        <v>0.627</v>
+        <v>0.496</v>
       </c>
       <c r="D134" t="s">
         <v>80</v>
@@ -4572,7 +4574,7 @@
         <v>75</v>
       </c>
       <c r="C135">
-        <v>0.65200000000000002</v>
+        <v>0.52800000000000002</v>
       </c>
       <c r="D135" t="s">
         <v>80</v>
@@ -4586,7 +4588,7 @@
         <v>50</v>
       </c>
       <c r="C136">
-        <v>0.67400000000000004</v>
+        <v>0.55300000000000005</v>
       </c>
       <c r="D136" t="s">
         <v>80</v>
@@ -4600,7 +4602,7 @@
         <v>100</v>
       </c>
       <c r="C137">
-        <v>0.61899999999999999</v>
+        <v>0.502</v>
       </c>
       <c r="D137" t="s">
         <v>80</v>
@@ -4614,7 +4616,7 @@
         <v>75</v>
       </c>
       <c r="C138">
-        <v>0.65100000000000002</v>
+        <v>0.51600000000000001</v>
       </c>
       <c r="D138" t="s">
         <v>80</v>
@@ -4628,7 +4630,7 @@
         <v>50</v>
       </c>
       <c r="C139">
-        <v>0.67900000000000005</v>
+        <v>0.55400000000000005</v>
       </c>
       <c r="D139" t="s">
         <v>80</v>
@@ -4642,7 +4644,7 @@
         <v>100</v>
       </c>
       <c r="C140">
-        <v>0.61599999999999999</v>
+        <v>0.51100000000000001</v>
       </c>
       <c r="D140" t="s">
         <v>80</v>
@@ -4656,7 +4658,7 @@
         <v>75</v>
       </c>
       <c r="C141">
-        <v>0.65300000000000002</v>
+        <v>0.52</v>
       </c>
       <c r="D141" t="s">
         <v>80</v>
@@ -4670,7 +4672,7 @@
         <v>50</v>
       </c>
       <c r="C142">
-        <v>0.66600000000000004</v>
+        <v>0.55500000000000005</v>
       </c>
       <c r="D142" t="s">
         <v>80</v>
@@ -4684,7 +4686,7 @@
         <v>100</v>
       </c>
       <c r="C143">
-        <v>0.60599999999999998</v>
+        <v>0.49199999999999999</v>
       </c>
       <c r="D143" t="s">
         <v>80</v>
@@ -4698,7 +4700,7 @@
         <v>75</v>
       </c>
       <c r="C144">
-        <v>0.65200000000000002</v>
+        <v>0.51700000000000002</v>
       </c>
       <c r="D144" t="s">
         <v>80</v>
@@ -4712,7 +4714,7 @@
         <v>50</v>
       </c>
       <c r="C145">
-        <v>0.67200000000000004</v>
+        <v>0.55500000000000005</v>
       </c>
       <c r="D145" t="s">
         <v>80</v>
@@ -4726,7 +4728,7 @@
         <v>100</v>
       </c>
       <c r="C146">
-        <v>0.61699999999999999</v>
+        <v>0.501</v>
       </c>
       <c r="D146" t="s">
         <v>80</v>
@@ -4740,7 +4742,7 @@
         <v>75</v>
       </c>
       <c r="C147">
-        <v>0.65200000000000002</v>
+        <v>0.50800000000000001</v>
       </c>
       <c r="D147" t="s">
         <v>80</v>
@@ -4754,7 +4756,7 @@
         <v>50</v>
       </c>
       <c r="C148">
-        <v>0.67300000000000004</v>
+        <v>0.55500000000000005</v>
       </c>
       <c r="D148" t="s">
         <v>80</v>
@@ -4768,7 +4770,7 @@
         <v>100</v>
       </c>
       <c r="C149">
-        <v>0.628</v>
+        <v>0.501</v>
       </c>
       <c r="D149" t="s">
         <v>80</v>
@@ -4782,7 +4784,7 @@
         <v>75</v>
       </c>
       <c r="C150">
-        <v>0.65900000000000003</v>
+        <v>0.51300000000000001</v>
       </c>
       <c r="D150" t="s">
         <v>80</v>
@@ -4796,7 +4798,7 @@
         <v>50</v>
       </c>
       <c r="C151">
-        <v>0.65200000000000002</v>
+        <v>0.56100000000000005</v>
       </c>
       <c r="D151" t="s">
         <v>80</v>
@@ -4810,7 +4812,7 @@
         <v>100</v>
       </c>
       <c r="C152">
-        <v>0.621</v>
+        <v>0.51</v>
       </c>
       <c r="D152" t="s">
         <v>80</v>
@@ -4824,7 +4826,7 @@
         <v>75</v>
       </c>
       <c r="C153">
-        <v>0.625</v>
+        <v>0.52600000000000002</v>
       </c>
       <c r="D153" t="s">
         <v>80</v>
@@ -4838,7 +4840,7 @@
         <v>50</v>
       </c>
       <c r="C154">
-        <v>0.7</v>
+        <v>0.58699999999999997</v>
       </c>
       <c r="D154" t="s">
         <v>80</v>
@@ -4852,7 +4854,7 @@
         <v>100</v>
       </c>
       <c r="C155">
-        <v>0.62</v>
+        <v>0.50800000000000001</v>
       </c>
       <c r="D155" t="s">
         <v>80</v>
@@ -4866,7 +4868,7 @@
         <v>75</v>
       </c>
       <c r="C156">
-        <v>0.64600000000000002</v>
+        <v>0.53900000000000003</v>
       </c>
       <c r="D156" t="s">
         <v>80</v>
@@ -4880,7 +4882,7 @@
         <v>50</v>
       </c>
       <c r="C157">
-        <v>0.70899999999999996</v>
+        <v>0.57399999999999995</v>
       </c>
       <c r="D157" t="s">
         <v>80</v>
@@ -4894,7 +4896,7 @@
         <v>100</v>
       </c>
       <c r="C158">
-        <v>0.62</v>
+        <v>0.50700000000000001</v>
       </c>
       <c r="D158" t="s">
         <v>80</v>
@@ -4908,7 +4910,7 @@
         <v>75</v>
       </c>
       <c r="C159">
-        <v>0.63900000000000001</v>
+        <v>0.53700000000000003</v>
       </c>
       <c r="D159" t="s">
         <v>80</v>
@@ -4922,7 +4924,7 @@
         <v>50</v>
       </c>
       <c r="C160">
-        <v>0.69799999999999995</v>
+        <v>0.57899999999999996</v>
       </c>
       <c r="D160" t="s">
         <v>80</v>
@@ -4936,7 +4938,7 @@
         <v>100</v>
       </c>
       <c r="C161">
-        <v>0.625</v>
+        <v>0.49099999999999999</v>
       </c>
       <c r="D161" t="s">
         <v>80</v>
@@ -4950,7 +4952,7 @@
         <v>75</v>
       </c>
       <c r="C162">
-        <v>0.63</v>
+        <v>0.52800000000000002</v>
       </c>
       <c r="D162" t="s">
         <v>80</v>
@@ -4964,7 +4966,7 @@
         <v>50</v>
       </c>
       <c r="C163">
-        <v>0.70499999999999996</v>
+        <v>0.59399999999999997</v>
       </c>
       <c r="D163" t="s">
         <v>80</v>
@@ -4978,7 +4980,7 @@
         <v>100</v>
       </c>
       <c r="C164">
-        <v>0.622</v>
+        <v>0.48399999999999999</v>
       </c>
       <c r="D164" t="s">
         <v>80</v>
@@ -4992,7 +4994,7 @@
         <v>75</v>
       </c>
       <c r="C165">
-        <v>0.64800000000000002</v>
+        <v>0.51300000000000001</v>
       </c>
       <c r="D165" t="s">
         <v>80</v>
@@ -5006,7 +5008,7 @@
         <v>50</v>
       </c>
       <c r="C166">
-        <v>0.70799999999999996</v>
+        <v>0.58699999999999997</v>
       </c>
       <c r="D166" t="s">
         <v>80</v>
@@ -5020,7 +5022,7 @@
         <v>100</v>
       </c>
       <c r="C167">
-        <v>0.55100000000000005</v>
+        <v>0.43099999999999999</v>
       </c>
       <c r="D167" t="s">
         <v>80</v>
@@ -5034,7 +5036,7 @@
         <v>75</v>
       </c>
       <c r="C168">
-        <v>0.57499999999999996</v>
+        <v>0.436</v>
       </c>
       <c r="D168" t="s">
         <v>80</v>
@@ -5048,7 +5050,7 @@
         <v>50</v>
       </c>
       <c r="C169">
-        <v>0.64</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="D169" t="s">
         <v>80</v>
@@ -5062,7 +5064,7 @@
         <v>100</v>
       </c>
       <c r="C170">
-        <v>0.56200000000000006</v>
+        <v>0.39800000000000002</v>
       </c>
       <c r="D170" t="s">
         <v>80</v>
@@ -5076,7 +5078,7 @@
         <v>75</v>
       </c>
       <c r="C171">
-        <v>0.55800000000000005</v>
+        <v>0.433</v>
       </c>
       <c r="D171" t="s">
         <v>80</v>
@@ -5090,7 +5092,7 @@
         <v>50</v>
       </c>
       <c r="C172">
-        <v>0.65900000000000003</v>
+        <v>0.504</v>
       </c>
       <c r="D172" t="s">
         <v>80</v>
@@ -5104,7 +5106,7 @@
         <v>100</v>
       </c>
       <c r="C173">
-        <v>0.56100000000000005</v>
+        <v>0.439</v>
       </c>
       <c r="D173" t="s">
         <v>80</v>
@@ -5118,7 +5120,7 @@
         <v>75</v>
       </c>
       <c r="C174">
-        <v>0.57699999999999996</v>
+        <v>0.44600000000000001</v>
       </c>
       <c r="D174" t="s">
         <v>80</v>
@@ -5132,7 +5134,7 @@
         <v>50</v>
       </c>
       <c r="C175">
-        <v>0.64300000000000002</v>
+        <v>0.47899999999999998</v>
       </c>
       <c r="D175" t="s">
         <v>80</v>
@@ -5146,7 +5148,7 @@
         <v>100</v>
       </c>
       <c r="C176">
-        <v>0.56499999999999995</v>
+        <v>0.438</v>
       </c>
       <c r="D176" t="s">
         <v>80</v>
@@ -5160,7 +5162,7 @@
         <v>75</v>
       </c>
       <c r="C177">
-        <v>0.56799999999999995</v>
+        <v>0.443</v>
       </c>
       <c r="D177" t="s">
         <v>80</v>
@@ -5174,7 +5176,7 @@
         <v>50</v>
       </c>
       <c r="C178">
-        <v>0.627</v>
+        <v>0.48</v>
       </c>
       <c r="D178" t="s">
         <v>80</v>
@@ -5188,7 +5190,7 @@
         <v>100</v>
       </c>
       <c r="C179">
-        <v>0.53600000000000003</v>
+        <v>0.40600000000000003</v>
       </c>
       <c r="D179" t="s">
         <v>80</v>
@@ -5202,7 +5204,7 @@
         <v>75</v>
       </c>
       <c r="C180">
-        <v>0.55500000000000005</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="D180" t="s">
         <v>80</v>
@@ -5216,7 +5218,7 @@
         <v>50</v>
       </c>
       <c r="C181">
-        <v>0.63</v>
+        <v>0.49399999999999999</v>
       </c>
       <c r="D181" t="s">
         <v>80</v>
@@ -5230,7 +5232,7 @@
         <v>100</v>
       </c>
       <c r="C182">
-        <v>0.60299999999999998</v>
+        <v>0.499</v>
       </c>
       <c r="D182" t="s">
         <v>80</v>
@@ -5244,7 +5246,7 @@
         <v>75</v>
       </c>
       <c r="C183">
-        <v>0.63600000000000001</v>
+        <v>0.49399999999999999</v>
       </c>
       <c r="D183" t="s">
         <v>80</v>
@@ -5258,7 +5260,7 @@
         <v>50</v>
       </c>
       <c r="C184">
-        <v>0.66300000000000003</v>
+        <v>0.52300000000000002</v>
       </c>
       <c r="D184" t="s">
         <v>80</v>
@@ -5272,7 +5274,7 @@
         <v>100</v>
       </c>
       <c r="C185">
-        <v>0.629</v>
+        <v>0.49099999999999999</v>
       </c>
       <c r="D185" t="s">
         <v>80</v>
@@ -5286,7 +5288,7 @@
         <v>75</v>
       </c>
       <c r="C186">
-        <v>0.626</v>
+        <v>0.5</v>
       </c>
       <c r="D186" t="s">
         <v>80</v>
@@ -5300,7 +5302,7 @@
         <v>50</v>
       </c>
       <c r="C187">
-        <v>0.65100000000000002</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="D187" t="s">
         <v>80</v>
@@ -5314,7 +5316,7 @@
         <v>100</v>
       </c>
       <c r="C188">
-        <v>0.61599999999999999</v>
+        <v>0.49299999999999999</v>
       </c>
       <c r="D188" t="s">
         <v>80</v>
@@ -5328,7 +5330,7 @@
         <v>75</v>
       </c>
       <c r="C189">
-        <v>0.626</v>
+        <v>0.52</v>
       </c>
       <c r="D189" t="s">
         <v>80</v>
@@ -5342,7 +5344,7 @@
         <v>50</v>
       </c>
       <c r="C190">
-        <v>0.66800000000000004</v>
+        <v>0.53800000000000003</v>
       </c>
       <c r="D190" t="s">
         <v>80</v>
@@ -5356,7 +5358,7 @@
         <v>100</v>
       </c>
       <c r="C191">
-        <v>0.621</v>
+        <v>0.48</v>
       </c>
       <c r="D191" t="s">
         <v>80</v>
@@ -5370,7 +5372,7 @@
         <v>75</v>
       </c>
       <c r="C192">
-        <v>0.61799999999999999</v>
+        <v>0.50800000000000001</v>
       </c>
       <c r="D192" t="s">
         <v>80</v>
@@ -5384,7 +5386,7 @@
         <v>50</v>
       </c>
       <c r="C193">
-        <v>0.66400000000000003</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="D193" t="s">
         <v>80</v>
@@ -5398,7 +5400,7 @@
         <v>100</v>
       </c>
       <c r="C194">
-        <v>0.61899999999999999</v>
+        <v>0.47799999999999998</v>
       </c>
       <c r="D194" t="s">
         <v>80</v>
@@ -5412,7 +5414,7 @@
         <v>75</v>
       </c>
       <c r="C195">
-        <v>0.63200000000000001</v>
+        <v>0.497</v>
       </c>
       <c r="D195" t="s">
         <v>80</v>
@@ -5426,7 +5428,7 @@
         <v>50</v>
       </c>
       <c r="C196">
-        <v>0.65300000000000002</v>
+        <v>0.52</v>
       </c>
       <c r="D196" t="s">
         <v>80</v>
@@ -5440,7 +5442,7 @@
         <v>100</v>
       </c>
       <c r="C197">
-        <v>0.56100000000000005</v>
+        <v>0.38200000000000001</v>
       </c>
       <c r="D197" t="s">
         <v>80</v>
@@ -5454,7 +5456,7 @@
         <v>75</v>
       </c>
       <c r="C198">
-        <v>0.52200000000000002</v>
+        <v>0.39300000000000002</v>
       </c>
       <c r="D198" t="s">
         <v>80</v>
@@ -5468,7 +5470,7 @@
         <v>50</v>
       </c>
       <c r="C199">
-        <v>0.60399999999999998</v>
+        <v>0.42299999999999999</v>
       </c>
       <c r="D199" t="s">
         <v>80</v>
@@ -5482,7 +5484,7 @@
         <v>100</v>
       </c>
       <c r="C200">
-        <v>0.54200000000000004</v>
+        <v>0.374</v>
       </c>
       <c r="D200" t="s">
         <v>80</v>
@@ -5496,7 +5498,7 @@
         <v>75</v>
       </c>
       <c r="C201">
-        <v>0.53700000000000003</v>
+        <v>0.40500000000000003</v>
       </c>
       <c r="D201" t="s">
         <v>80</v>
@@ -5510,7 +5512,7 @@
         <v>50</v>
       </c>
       <c r="C202">
-        <v>0.60299999999999998</v>
+        <v>0.43099999999999999</v>
       </c>
       <c r="D202" t="s">
         <v>80</v>
@@ -5524,7 +5526,7 @@
         <v>100</v>
       </c>
       <c r="C203">
-        <v>0.55100000000000005</v>
+        <v>0.39200000000000002</v>
       </c>
       <c r="D203" t="s">
         <v>80</v>
@@ -5538,7 +5540,7 @@
         <v>75</v>
       </c>
       <c r="C204">
-        <v>0.53900000000000003</v>
+        <v>0.39600000000000002</v>
       </c>
       <c r="D204" t="s">
         <v>80</v>
@@ -5552,7 +5554,7 @@
         <v>50</v>
       </c>
       <c r="C205">
-        <v>0.60399999999999998</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="D205" t="s">
         <v>80</v>
@@ -5566,7 +5568,7 @@
         <v>100</v>
       </c>
       <c r="C206">
-        <v>0.54200000000000004</v>
+        <v>0.40100000000000002</v>
       </c>
       <c r="D206" t="s">
         <v>80</v>
@@ -5580,7 +5582,7 @@
         <v>75</v>
       </c>
       <c r="C207">
-        <v>0.54900000000000004</v>
+        <v>0.40500000000000003</v>
       </c>
       <c r="D207" t="s">
         <v>80</v>
@@ -5594,7 +5596,7 @@
         <v>50</v>
       </c>
       <c r="C208">
-        <v>0.60199999999999998</v>
+        <v>0.38500000000000001</v>
       </c>
       <c r="D208" t="s">
         <v>80</v>
@@ -5608,7 +5610,7 @@
         <v>100</v>
       </c>
       <c r="C209">
-        <v>0.53200000000000003</v>
+        <v>0.4</v>
       </c>
       <c r="D209" t="s">
         <v>80</v>
@@ -5622,7 +5624,7 @@
         <v>75</v>
       </c>
       <c r="C210">
-        <v>0.54300000000000004</v>
+        <v>0.38500000000000001</v>
       </c>
       <c r="D210" t="s">
         <v>80</v>
@@ -5636,7 +5638,7 @@
         <v>50</v>
       </c>
       <c r="C211">
-        <v>0.61399999999999999</v>
+        <v>0.42899999999999999</v>
       </c>
       <c r="D211" t="s">
         <v>80</v>
@@ -5650,7 +5652,7 @@
         <v>100</v>
       </c>
       <c r="C212">
-        <v>0.49199999999999999</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="D212" t="s">
         <v>80</v>
@@ -5664,7 +5666,7 @@
         <v>75</v>
       </c>
       <c r="C213">
-        <v>0.498</v>
+        <v>0.36</v>
       </c>
       <c r="D213" t="s">
         <v>80</v>
@@ -5678,7 +5680,7 @@
         <v>50</v>
       </c>
       <c r="C214">
-        <v>0.52</v>
+        <v>0.39100000000000001</v>
       </c>
       <c r="D214" t="s">
         <v>80</v>
@@ -5692,7 +5694,7 @@
         <v>100</v>
       </c>
       <c r="C215">
-        <v>0.47</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="D215" t="s">
         <v>80</v>
@@ -5706,7 +5708,7 @@
         <v>75</v>
       </c>
       <c r="C216">
-        <v>0.495</v>
+        <v>0.36499999999999999</v>
       </c>
       <c r="D216" t="s">
         <v>80</v>
@@ -5720,7 +5722,7 @@
         <v>50</v>
       </c>
       <c r="C217">
-        <v>0.51500000000000001</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="D217" t="s">
         <v>80</v>
@@ -5734,7 +5736,7 @@
         <v>100</v>
       </c>
       <c r="C218">
-        <v>0.51600000000000001</v>
+        <v>0.35099999999999998</v>
       </c>
       <c r="D218" t="s">
         <v>80</v>
@@ -5748,7 +5750,7 @@
         <v>75</v>
       </c>
       <c r="C219">
-        <v>0.51</v>
+        <v>0.35199999999999998</v>
       </c>
       <c r="D219" t="s">
         <v>80</v>
@@ -5762,7 +5764,7 @@
         <v>50</v>
       </c>
       <c r="C220">
-        <v>0.51900000000000002</v>
+        <v>0.34100000000000003</v>
       </c>
       <c r="D220" t="s">
         <v>80</v>
@@ -5776,7 +5778,7 @@
         <v>100</v>
       </c>
       <c r="C221">
-        <v>0.52100000000000002</v>
+        <v>0.35199999999999998</v>
       </c>
       <c r="D221" t="s">
         <v>80</v>
@@ -5790,7 +5792,7 @@
         <v>75</v>
       </c>
       <c r="C222">
-        <v>0.51700000000000002</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="D222" t="s">
         <v>80</v>
@@ -5804,7 +5806,7 @@
         <v>50</v>
       </c>
       <c r="C223">
-        <v>0.48399999999999999</v>
+        <v>0.373</v>
       </c>
       <c r="D223" t="s">
         <v>80</v>
@@ -5818,7 +5820,7 @@
         <v>100</v>
       </c>
       <c r="C224">
-        <v>0.47099999999999997</v>
+        <v>0.34300000000000003</v>
       </c>
       <c r="D224" t="s">
         <v>80</v>
@@ -5832,7 +5834,7 @@
         <v>75</v>
       </c>
       <c r="C225">
-        <v>0.47799999999999998</v>
+        <v>0.33400000000000002</v>
       </c>
       <c r="D225" t="s">
         <v>80</v>
@@ -5846,7 +5848,7 @@
         <v>50</v>
       </c>
       <c r="C226">
-        <v>0.51300000000000001</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="D226" t="s">
         <v>80</v>
@@ -5860,7 +5862,7 @@
         <v>100</v>
       </c>
       <c r="C227">
-        <v>0.45800000000000002</v>
+        <v>0.33700000000000002</v>
       </c>
       <c r="D227" t="s">
         <v>80</v>
@@ -5874,7 +5876,7 @@
         <v>75</v>
       </c>
       <c r="C228">
-        <v>0.45500000000000002</v>
+        <v>0.33700000000000002</v>
       </c>
       <c r="D228" t="s">
         <v>80</v>
@@ -5888,7 +5890,7 @@
         <v>50</v>
       </c>
       <c r="C229">
-        <v>0.52100000000000002</v>
+        <v>0.41699999999999998</v>
       </c>
       <c r="D229" t="s">
         <v>80</v>
@@ -5902,7 +5904,7 @@
         <v>100</v>
       </c>
       <c r="C230">
-        <v>0.45800000000000002</v>
+        <v>0.35199999999999998</v>
       </c>
       <c r="D230" t="s">
         <v>80</v>
@@ -5916,7 +5918,7 @@
         <v>75</v>
       </c>
       <c r="C231">
-        <v>0.436</v>
+        <v>0.36899999999999999</v>
       </c>
       <c r="D231" t="s">
         <v>80</v>
@@ -5930,7 +5932,7 @@
         <v>50</v>
       </c>
       <c r="C232">
-        <v>0.52100000000000002</v>
+        <v>0.38300000000000001</v>
       </c>
       <c r="D232" t="s">
         <v>80</v>
@@ -5944,7 +5946,7 @@
         <v>100</v>
       </c>
       <c r="C233">
-        <v>0.42299999999999999</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="D233" t="s">
         <v>80</v>
@@ -5958,7 +5960,7 @@
         <v>75</v>
       </c>
       <c r="C234">
-        <v>0.45500000000000002</v>
+        <v>0.33800000000000002</v>
       </c>
       <c r="D234" t="s">
         <v>80</v>
@@ -5972,7 +5974,7 @@
         <v>50</v>
       </c>
       <c r="C235">
-        <v>0.52400000000000002</v>
+        <v>0.37</v>
       </c>
       <c r="D235" t="s">
         <v>80</v>
@@ -5986,7 +5988,7 @@
         <v>100</v>
       </c>
       <c r="C236">
-        <v>0.443</v>
+        <v>0.34100000000000003</v>
       </c>
       <c r="D236" t="s">
         <v>80</v>
@@ -6000,7 +6002,7 @@
         <v>75</v>
       </c>
       <c r="C237">
-        <v>0.46500000000000002</v>
+        <v>0.32800000000000001</v>
       </c>
       <c r="D237" t="s">
         <v>80</v>
@@ -6014,7 +6016,7 @@
         <v>50</v>
       </c>
       <c r="C238">
-        <v>0.53300000000000003</v>
+        <v>0.38600000000000001</v>
       </c>
       <c r="D238" t="s">
         <v>80</v>
@@ -6028,7 +6030,7 @@
         <v>100</v>
       </c>
       <c r="C239">
-        <v>0.46500000000000002</v>
+        <v>0.32600000000000001</v>
       </c>
       <c r="D239" t="s">
         <v>80</v>
@@ -6042,7 +6044,7 @@
         <v>75</v>
       </c>
       <c r="C240">
-        <v>0.45700000000000002</v>
+        <v>0.34200000000000003</v>
       </c>
       <c r="D240" t="s">
         <v>80</v>
@@ -6056,7 +6058,7 @@
         <v>50</v>
       </c>
       <c r="C241">
-        <v>0.52200000000000002</v>
+        <v>0.40400000000000003</v>
       </c>
       <c r="D241" t="s">
         <v>80</v>
@@ -6070,7 +6072,7 @@
         <v>100</v>
       </c>
       <c r="C242">
-        <v>0.40799999999999997</v>
+        <v>0.30299999999999999</v>
       </c>
       <c r="D242" t="s">
         <v>80</v>
@@ -6084,7 +6086,7 @@
         <v>75</v>
       </c>
       <c r="C243">
-        <v>0.41299999999999998</v>
+        <v>0.316</v>
       </c>
       <c r="D243" t="s">
         <v>80</v>
@@ -6098,7 +6100,7 @@
         <v>50</v>
       </c>
       <c r="C244">
-        <v>0.42199999999999999</v>
+        <v>0.317</v>
       </c>
       <c r="D244" t="s">
         <v>80</v>
@@ -6112,7 +6114,7 @@
         <v>100</v>
       </c>
       <c r="C245">
-        <v>0.42399999999999999</v>
+        <v>0.30299999999999999</v>
       </c>
       <c r="D245" t="s">
         <v>80</v>
@@ -6126,7 +6128,7 @@
         <v>75</v>
       </c>
       <c r="C246">
-        <v>0.38500000000000001</v>
+        <v>0.311</v>
       </c>
       <c r="D246" t="s">
         <v>80</v>
@@ -6140,7 +6142,7 @@
         <v>50</v>
       </c>
       <c r="C247">
-        <v>0.41099999999999998</v>
+        <v>0.32300000000000001</v>
       </c>
       <c r="D247" t="s">
         <v>80</v>
@@ -6154,7 +6156,7 @@
         <v>100</v>
       </c>
       <c r="C248">
-        <v>0.41399999999999998</v>
+        <v>0.312</v>
       </c>
       <c r="D248" t="s">
         <v>80</v>
@@ -6168,7 +6170,7 @@
         <v>75</v>
       </c>
       <c r="C249">
-        <v>0.443</v>
+        <v>0.30299999999999999</v>
       </c>
       <c r="D249" t="s">
         <v>80</v>
@@ -6182,7 +6184,7 @@
         <v>50</v>
       </c>
       <c r="C250">
-        <v>0.40699999999999997</v>
+        <v>0.32</v>
       </c>
       <c r="D250" t="s">
         <v>80</v>
@@ -6196,7 +6198,7 @@
         <v>100</v>
       </c>
       <c r="C251">
-        <v>0.40600000000000003</v>
+        <v>0.308</v>
       </c>
       <c r="D251" t="s">
         <v>80</v>
@@ -6210,7 +6212,7 @@
         <v>75</v>
       </c>
       <c r="C252">
-        <v>0.41199999999999998</v>
+        <v>0.312</v>
       </c>
       <c r="D252" t="s">
         <v>80</v>
@@ -6224,7 +6226,7 @@
         <v>50</v>
       </c>
       <c r="C253">
-        <v>0.40600000000000003</v>
+        <v>0.311</v>
       </c>
       <c r="D253" t="s">
         <v>80</v>
@@ -6238,7 +6240,7 @@
         <v>100</v>
       </c>
       <c r="C254">
-        <v>0.42199999999999999</v>
+        <v>0.315</v>
       </c>
       <c r="D254" t="s">
         <v>80</v>
@@ -6252,7 +6254,7 @@
         <v>75</v>
       </c>
       <c r="C255">
-        <v>0.438</v>
+        <v>0.311</v>
       </c>
       <c r="D255" t="s">
         <v>80</v>
@@ -6266,7 +6268,7 @@
         <v>50</v>
       </c>
       <c r="C256">
-        <v>0.435</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="D256" t="s">
         <v>80</v>
@@ -6280,7 +6282,7 @@
         <v>100</v>
       </c>
       <c r="C257">
-        <v>0.41499999999999998</v>
+        <v>0.36899999999999999</v>
       </c>
       <c r="D257" t="s">
         <v>80</v>
@@ -6294,7 +6296,7 @@
         <v>75</v>
       </c>
       <c r="C258">
-        <v>0.45200000000000001</v>
+        <v>0.35199999999999998</v>
       </c>
       <c r="D258" t="s">
         <v>80</v>
@@ -6308,7 +6310,7 @@
         <v>50</v>
       </c>
       <c r="C259">
-        <v>0.43</v>
+        <v>0.35599999999999998</v>
       </c>
       <c r="D259" t="s">
         <v>80</v>
@@ -6322,7 +6324,7 @@
         <v>100</v>
       </c>
       <c r="C260">
-        <v>0.45100000000000001</v>
+        <v>0.37</v>
       </c>
       <c r="D260" t="s">
         <v>80</v>
@@ -6336,7 +6338,7 @@
         <v>75</v>
       </c>
       <c r="C261">
-        <v>0.47599999999999998</v>
+        <v>0.373</v>
       </c>
       <c r="D261" t="s">
         <v>80</v>
@@ -6350,7 +6352,7 @@
         <v>50</v>
       </c>
       <c r="C262">
-        <v>0.43099999999999999</v>
+        <v>0.38100000000000001</v>
       </c>
       <c r="D262" t="s">
         <v>80</v>
@@ -6364,7 +6366,7 @@
         <v>100</v>
       </c>
       <c r="C263">
-        <v>0.443</v>
+        <v>0.34599999999999997</v>
       </c>
       <c r="D263" t="s">
         <v>80</v>
@@ -6378,7 +6380,7 @@
         <v>75</v>
       </c>
       <c r="C264">
-        <v>0.44400000000000001</v>
+        <v>0.36599999999999999</v>
       </c>
       <c r="D264" t="s">
         <v>80</v>
@@ -6392,7 +6394,7 @@
         <v>50</v>
       </c>
       <c r="C265">
-        <v>0.438</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="D265" t="s">
         <v>80</v>
@@ -6406,7 +6408,7 @@
         <v>100</v>
       </c>
       <c r="C266">
-        <v>0.48199999999999998</v>
+        <v>0.36699999999999999</v>
       </c>
       <c r="D266" t="s">
         <v>80</v>
@@ -6420,7 +6422,7 @@
         <v>75</v>
       </c>
       <c r="C267">
-        <v>0.45500000000000002</v>
+        <v>0.38900000000000001</v>
       </c>
       <c r="D267" t="s">
         <v>80</v>
@@ -6434,7 +6436,7 @@
         <v>50</v>
       </c>
       <c r="C268">
-        <v>0.44500000000000001</v>
+        <v>0.36799999999999999</v>
       </c>
       <c r="D268" t="s">
         <v>80</v>
@@ -6448,7 +6450,7 @@
         <v>100</v>
       </c>
       <c r="C269">
-        <v>0.46</v>
+        <v>0.36099999999999999</v>
       </c>
       <c r="D269" t="s">
         <v>80</v>
@@ -6462,7 +6464,7 @@
         <v>75</v>
       </c>
       <c r="C270">
-        <v>0.46600000000000003</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="D270" t="s">
         <v>80</v>
@@ -6476,7 +6478,7 @@
         <v>50</v>
       </c>
       <c r="C271">
-        <v>0.45800000000000002</v>
+        <v>0.34499999999999997</v>
       </c>
       <c r="D271" t="s">
         <v>80</v>
@@ -6490,7 +6492,7 @@
         <v>100</v>
       </c>
       <c r="C272">
-        <v>0.54600000000000004</v>
+        <v>0.43</v>
       </c>
       <c r="D272" t="s">
         <v>80</v>
@@ -6504,7 +6506,7 @@
         <v>75</v>
       </c>
       <c r="C273">
-        <v>0.52800000000000002</v>
+        <v>0.434</v>
       </c>
       <c r="D273" t="s">
         <v>80</v>
@@ -6518,7 +6520,7 @@
         <v>50</v>
       </c>
       <c r="C274">
-        <v>0.54</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="D274" t="s">
         <v>80</v>
@@ -6532,7 +6534,7 @@
         <v>100</v>
       </c>
       <c r="C275">
-        <v>0.53</v>
+        <v>0.40899999999999997</v>
       </c>
       <c r="D275" t="s">
         <v>80</v>
@@ -6546,7 +6548,7 @@
         <v>75</v>
       </c>
       <c r="C276">
-        <v>0.54200000000000004</v>
+        <v>0.434</v>
       </c>
       <c r="D276" t="s">
         <v>80</v>
@@ -6560,7 +6562,7 @@
         <v>50</v>
       </c>
       <c r="C277">
-        <v>0.53500000000000003</v>
+        <v>0.44</v>
       </c>
       <c r="D277" t="s">
         <v>80</v>
@@ -6574,7 +6576,7 @@
         <v>100</v>
       </c>
       <c r="C278">
-        <v>0.54300000000000004</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="D278" t="s">
         <v>80</v>
@@ -6588,7 +6590,7 @@
         <v>75</v>
       </c>
       <c r="C279">
-        <v>0.54400000000000004</v>
+        <v>0.435</v>
       </c>
       <c r="D279" t="s">
         <v>80</v>
@@ -6602,7 +6604,7 @@
         <v>50</v>
       </c>
       <c r="C280">
-        <v>0.53300000000000003</v>
+        <v>0.439</v>
       </c>
       <c r="D280" t="s">
         <v>80</v>
@@ -6616,7 +6618,7 @@
         <v>100</v>
       </c>
       <c r="C281">
-        <v>0.54300000000000004</v>
+        <v>0.41599999999999998</v>
       </c>
       <c r="D281" t="s">
         <v>80</v>
@@ -6630,7 +6632,7 @@
         <v>75</v>
       </c>
       <c r="C282">
-        <v>0.53700000000000003</v>
+        <v>0.41899999999999998</v>
       </c>
       <c r="D282" t="s">
         <v>80</v>
@@ -6644,7 +6646,7 @@
         <v>50</v>
       </c>
       <c r="C283">
-        <v>0.53900000000000003</v>
+        <v>0.41899999999999998</v>
       </c>
       <c r="D283" t="s">
         <v>80</v>
@@ -6658,7 +6660,7 @@
         <v>100</v>
       </c>
       <c r="C284">
-        <v>0.53600000000000003</v>
+        <v>0.42299999999999999</v>
       </c>
       <c r="D284" t="s">
         <v>80</v>
@@ -6672,7 +6674,7 @@
         <v>75</v>
       </c>
       <c r="C285">
-        <v>0.53</v>
+        <v>0.42899999999999999</v>
       </c>
       <c r="D285" t="s">
         <v>80</v>
@@ -6686,7 +6688,7 @@
         <v>50</v>
       </c>
       <c r="C286">
-        <v>0.55300000000000005</v>
+        <v>0.42599999999999999</v>
       </c>
       <c r="D286" t="s">
         <v>80</v>
@@ -6700,7 +6702,7 @@
         <v>100</v>
       </c>
       <c r="C287">
-        <v>0.621</v>
+        <v>0.52300000000000002</v>
       </c>
       <c r="D287" t="s">
         <v>80</v>
@@ -6714,7 +6716,7 @@
         <v>75</v>
       </c>
       <c r="C288">
-        <v>0.63700000000000001</v>
+        <v>0.52700000000000002</v>
       </c>
       <c r="D288" t="s">
         <v>80</v>
@@ -6728,7 +6730,7 @@
         <v>50</v>
       </c>
       <c r="C289">
-        <v>0.65400000000000003</v>
+        <v>0.54200000000000004</v>
       </c>
       <c r="D289" t="s">
         <v>80</v>
@@ -6742,7 +6744,7 @@
         <v>100</v>
       </c>
       <c r="C290">
-        <v>0.61799999999999999</v>
+        <v>0.51900000000000002</v>
       </c>
       <c r="D290" t="s">
         <v>80</v>
@@ -6756,7 +6758,7 @@
         <v>75</v>
       </c>
       <c r="C291">
-        <v>0.63600000000000001</v>
+        <v>0.54</v>
       </c>
       <c r="D291" t="s">
         <v>80</v>
@@ -6770,7 +6772,7 @@
         <v>50</v>
       </c>
       <c r="C292">
-        <v>0.65800000000000003</v>
+        <v>0.55700000000000005</v>
       </c>
       <c r="D292" t="s">
         <v>80</v>
@@ -6784,7 +6786,7 @@
         <v>100</v>
       </c>
       <c r="C293">
-        <v>0.624</v>
+        <v>0.52800000000000002</v>
       </c>
       <c r="D293" t="s">
         <v>80</v>
@@ -6798,7 +6800,7 @@
         <v>75</v>
       </c>
       <c r="C294">
-        <v>0.65600000000000003</v>
+        <v>0.52600000000000002</v>
       </c>
       <c r="D294" t="s">
         <v>80</v>
@@ -6812,7 +6814,7 @@
         <v>50</v>
       </c>
       <c r="C295">
-        <v>0.67200000000000004</v>
+        <v>0.56899999999999995</v>
       </c>
       <c r="D295" t="s">
         <v>80</v>
@@ -6826,7 +6828,7 @@
         <v>100</v>
       </c>
       <c r="C296">
-        <v>0.64700000000000002</v>
+        <v>0.51600000000000001</v>
       </c>
       <c r="D296" t="s">
         <v>80</v>
@@ -6840,7 +6842,7 @@
         <v>75</v>
       </c>
       <c r="C297">
-        <v>0.65200000000000002</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="D297" t="s">
         <v>80</v>
@@ -6854,7 +6856,7 @@
         <v>50</v>
       </c>
       <c r="C298">
-        <v>0.66900000000000004</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D298" t="s">
         <v>80</v>
@@ -6868,7 +6870,7 @@
         <v>100</v>
       </c>
       <c r="C299">
-        <v>0.63100000000000001</v>
+        <v>0.53700000000000003</v>
       </c>
       <c r="D299" t="s">
         <v>80</v>
@@ -6882,7 +6884,7 @@
         <v>75</v>
       </c>
       <c r="C300">
-        <v>0.63400000000000001</v>
+        <v>0.51300000000000001</v>
       </c>
       <c r="D300" t="s">
         <v>80</v>
@@ -6896,7 +6898,7 @@
         <v>50</v>
       </c>
       <c r="C301">
-        <v>0.64100000000000001</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D301" t="s">
         <v>80</v>
@@ -6910,7 +6912,7 @@
         <v>100</v>
       </c>
       <c r="C302">
-        <v>0.65800000000000003</v>
+        <v>0.53900000000000003</v>
       </c>
       <c r="D302" t="s">
         <v>80</v>
@@ -6924,7 +6926,7 @@
         <v>75</v>
       </c>
       <c r="C303">
-        <v>0.622</v>
+        <v>0.53900000000000003</v>
       </c>
       <c r="D303" t="s">
         <v>80</v>
@@ -6938,7 +6940,7 @@
         <v>50</v>
       </c>
       <c r="C304">
-        <v>0.66900000000000004</v>
+        <v>0.55400000000000005</v>
       </c>
       <c r="D304" t="s">
         <v>80</v>
@@ -6952,7 +6954,7 @@
         <v>100</v>
       </c>
       <c r="C305">
-        <v>0.65900000000000003</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="D305" t="s">
         <v>80</v>
@@ -6966,7 +6968,7 @@
         <v>75</v>
       </c>
       <c r="C306">
-        <v>0.67300000000000004</v>
+        <v>0.55600000000000005</v>
       </c>
       <c r="D306" t="s">
         <v>80</v>
@@ -6980,7 +6982,7 @@
         <v>50</v>
       </c>
       <c r="C307">
-        <v>0.67500000000000004</v>
+        <v>0.54800000000000004</v>
       </c>
       <c r="D307" t="s">
         <v>80</v>
@@ -6994,7 +6996,7 @@
         <v>100</v>
       </c>
       <c r="C308">
-        <v>0.66700000000000004</v>
+        <v>0.53800000000000003</v>
       </c>
       <c r="D308" t="s">
         <v>80</v>
@@ -7008,7 +7010,7 @@
         <v>75</v>
       </c>
       <c r="C309">
-        <v>0.67500000000000004</v>
+        <v>0.53300000000000003</v>
       </c>
       <c r="D309" t="s">
         <v>80</v>
@@ -7022,7 +7024,7 @@
         <v>50</v>
       </c>
       <c r="C310">
-        <v>0.67500000000000004</v>
+        <v>0.55800000000000005</v>
       </c>
       <c r="D310" t="s">
         <v>80</v>
@@ -7036,7 +7038,7 @@
         <v>100</v>
       </c>
       <c r="C311">
-        <v>0.66600000000000004</v>
+        <v>0.52800000000000002</v>
       </c>
       <c r="D311" t="s">
         <v>80</v>
@@ -7050,7 +7052,7 @@
         <v>75</v>
       </c>
       <c r="C312">
-        <v>0.66900000000000004</v>
+        <v>0.53500000000000003</v>
       </c>
       <c r="D312" t="s">
         <v>80</v>
@@ -7064,7 +7066,7 @@
         <v>50</v>
       </c>
       <c r="C313">
-        <v>0.66700000000000004</v>
+        <v>0.55500000000000005</v>
       </c>
       <c r="D313" t="s">
         <v>80</v>
@@ -7078,7 +7080,7 @@
         <v>100</v>
       </c>
       <c r="C314">
-        <v>0.65200000000000002</v>
+        <v>0.52</v>
       </c>
       <c r="D314" t="s">
         <v>80</v>
@@ -7092,7 +7094,7 @@
         <v>75</v>
       </c>
       <c r="C315">
-        <v>0.66100000000000003</v>
+        <v>0.54700000000000004</v>
       </c>
       <c r="D315" t="s">
         <v>80</v>
@@ -7106,7 +7108,7 @@
         <v>50</v>
       </c>
       <c r="C316">
-        <v>0.68100000000000005</v>
+        <v>0.55200000000000005</v>
       </c>
       <c r="D316" t="s">
         <v>80</v>
@@ -7120,7 +7122,7 @@
         <v>100</v>
       </c>
       <c r="C317">
-        <v>0.63200000000000001</v>
+        <v>0.52800000000000002</v>
       </c>
       <c r="D317" t="s">
         <v>80</v>
@@ -7134,7 +7136,7 @@
         <v>75</v>
       </c>
       <c r="C318">
-        <v>0.623</v>
+        <v>0.53700000000000003</v>
       </c>
       <c r="D318" t="s">
         <v>80</v>
@@ -7148,7 +7150,7 @@
         <v>50</v>
       </c>
       <c r="C319">
-        <v>0.63100000000000001</v>
+        <v>0.53300000000000003</v>
       </c>
       <c r="D319" t="s">
         <v>80</v>
@@ -7162,7 +7164,7 @@
         <v>100</v>
       </c>
       <c r="C320">
-        <v>0.60499999999999998</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="D320" t="s">
         <v>80</v>
@@ -7176,7 +7178,7 @@
         <v>75</v>
       </c>
       <c r="C321">
-        <v>0.63200000000000001</v>
+        <v>0.52600000000000002</v>
       </c>
       <c r="D321" t="s">
         <v>80</v>
@@ -7190,7 +7192,7 @@
         <v>50</v>
       </c>
       <c r="C322">
-        <v>0.65100000000000002</v>
+        <v>0.53300000000000003</v>
       </c>
       <c r="D322" t="s">
         <v>80</v>
@@ -7204,7 +7206,7 @@
         <v>100</v>
       </c>
       <c r="C323">
-        <v>0.61499999999999999</v>
+        <v>0.52900000000000003</v>
       </c>
       <c r="D323" t="s">
         <v>80</v>
@@ -7218,7 +7220,7 @@
         <v>75</v>
       </c>
       <c r="C324">
-        <v>0.63200000000000001</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="D324" t="s">
         <v>80</v>
@@ -7232,7 +7234,7 @@
         <v>50</v>
       </c>
       <c r="C325">
-        <v>0.64500000000000002</v>
+        <v>0.53400000000000003</v>
       </c>
       <c r="D325" t="s">
         <v>80</v>
@@ -7246,7 +7248,7 @@
         <v>100</v>
       </c>
       <c r="C326">
-        <v>0.63</v>
+        <v>0.52800000000000002</v>
       </c>
       <c r="D326" t="s">
         <v>80</v>
@@ -7260,7 +7262,7 @@
         <v>75</v>
       </c>
       <c r="C327">
-        <v>0.622</v>
+        <v>0.52600000000000002</v>
       </c>
       <c r="D327" t="s">
         <v>80</v>
@@ -7274,7 +7276,7 @@
         <v>50</v>
       </c>
       <c r="C328">
-        <v>0.65100000000000002</v>
+        <v>0.53800000000000003</v>
       </c>
       <c r="D328" t="s">
         <v>80</v>
@@ -7288,7 +7290,7 @@
         <v>100</v>
       </c>
       <c r="C329">
-        <v>0.63200000000000001</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="D329" t="s">
         <v>80</v>
@@ -7302,7 +7304,7 @@
         <v>75</v>
       </c>
       <c r="C330">
-        <v>0.64500000000000002</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="D330" t="s">
         <v>80</v>
@@ -7316,7 +7318,7 @@
         <v>50</v>
       </c>
       <c r="C331">
-        <v>0.66800000000000004</v>
+        <v>0.54300000000000004</v>
       </c>
       <c r="D331" t="s">
         <v>80</v>
